--- a/Distribution/Examples/ACQ.Stats.xlsx
+++ b/Distribution/Examples/ACQ.Stats.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C692BA0-16A0-42A1-9681-E97AD48B241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71F19D-08C8-45E5-9F6A-C67FDED8894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1830" windowWidth="24450" windowHeight="12690" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
     <sheet name="Stats" sheetId="21" r:id="rId2"/>
+    <sheet name="BinomialConfidence" sheetId="22" r:id="rId3"/>
+    <sheet name="MinMax" sheetId="23" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>date</t>
   </si>
@@ -150,6 +152,54 @@
   </si>
   <si>
     <t>weighted</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>confidance</t>
+  </si>
+  <si>
+    <t>acq_binomtest</t>
+  </si>
+  <si>
+    <t>acq_max</t>
+  </si>
+  <si>
+    <t>acq_absmax</t>
+  </si>
+  <si>
+    <t>acq_min</t>
+  </si>
+  <si>
+    <t>acq_abmin</t>
+  </si>
+  <si>
+    <t>acq_sum</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>ACQ</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>acq_stdev</t>
+  </si>
+  <si>
+    <t>acq_sumofsquares</t>
   </si>
 </sst>
 </file>
@@ -387,7 +437,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +462,9 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -786,18 +839,18 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8030.35923</v>
+        <v>1.4.8035.38349</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="13">
         <f ca="1">TODAY()</f>
-        <v>44556</v>
+        <v>44561</v>
       </c>
       <c r="J4" s="14" t="str">
         <f ca="1">_xll.acq_tostring(H4)</f>
-        <v>44556</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -919,7 +972,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">_xll.acq_join(H3:H10)</f>
-        <v>3.14159265358979,44556,True,,,,,</v>
+        <v>3.14159265358979,44561,True,,,,,</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
@@ -928,7 +981,7 @@
       </c>
       <c r="H14" t="str">
         <f ca="1">_xll.acq_join(J3:J10, "|")</f>
-        <v>3.14159265358979|44556|TRUE|||||</v>
+        <v>3.14159265358979|44561|TRUE|||||</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
@@ -1475,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3652BA-B6C4-41DD-BA87-7F24132F99FF}">
   <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1844,4 +1897,829 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F123368-5BB9-4931-95EC-690D8D570C5B}">
+  <dimension ref="A2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="e">
+        <f>_xll.acq_binomtest(E5,F5,$B$2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
+        <f>_xll.acq_binomtest(E5,F5,$B$2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>_xll.acq_binomtest(E6,F6,$B$2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>_xll.acq_binomtest(E6,F6,$B$2,FALSE)</f>
+        <v>0.2775327998628892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f>_xll.acq_binomtest(E7,F7,$B$2,TRUE)</f>
+        <v>1.7876213095072889E-2</v>
+      </c>
+      <c r="H7">
+        <f>_xll.acq_binomtest(E7,F7,$B$2,FALSE)</f>
+        <v>0.40415002679523848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f>_xll.acq_binomtest(E8,F8,$B$2,TRUE)</f>
+        <v>5.6682151454375218E-2</v>
+      </c>
+      <c r="H8">
+        <f>_xll.acq_binomtest(E8,F8,$B$2,FALSE)</f>
+        <v>0.50983752846335817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>_xll.acq_binomtest(E9,F9,$B$2,TRUE)</f>
+        <v>0.10779126740630099</v>
+      </c>
+      <c r="H9">
+        <f>_xll.acq_binomtest(E9,F9,$B$2,FALSE)</f>
+        <v>0.60322185253885463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>_xll.acq_binomtest(E10,F10,$B$2,TRUE)</f>
+        <v>0.16818032970623617</v>
+      </c>
+      <c r="H10">
+        <f>_xll.acq_binomtest(E10,F10,$B$2,FALSE)</f>
+        <v>0.68732623026634165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f>_xll.acq_binomtest(E11,F11,$B$2,TRUE)</f>
+        <v>0.236593090512564</v>
+      </c>
+      <c r="H11">
+        <f>_xll.acq_binomtest(E11,F11,$B$2,FALSE)</f>
+        <v>0.76340690948743595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f>_xll.acq_binomtest(E12,F12,$B$2,TRUE)</f>
+        <v>0.31267376973365829</v>
+      </c>
+      <c r="H12">
+        <f>_xll.acq_binomtest(E12,F12,$B$2,FALSE)</f>
+        <v>0.8318196702937638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f>_xll.acq_binomtest(E13,F13,$B$2,TRUE)</f>
+        <v>0.39677814746114531</v>
+      </c>
+      <c r="H13">
+        <f>_xll.acq_binomtest(E13,F13,$B$2,FALSE)</f>
+        <v>0.89220873259369882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f>_xll.acq_binomtest(E14,F14,$B$2,TRUE)</f>
+        <v>0.49016247153664178</v>
+      </c>
+      <c r="H14">
+        <f>_xll.acq_binomtest(E14,F14,$B$2,FALSE)</f>
+        <v>0.94331784854562473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f>_xll.acq_binomtest(E15,F15,$B$2,TRUE)</f>
+        <v>0.59584997320476163</v>
+      </c>
+      <c r="H15">
+        <f>_xll.acq_binomtest(E15,F15,$B$2,FALSE)</f>
+        <v>0.98212378690492708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f>_xll.acq_binomtest(E16,F16,$B$2,TRUE)</f>
+        <v>0.72246720013711063</v>
+      </c>
+      <c r="H16">
+        <f>_xll.acq_binomtest(E16,F16,$B$2,FALSE)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="e">
+        <f>_xll.acq_binomtest(E17,F17,$B$2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <f>_xll.acq_binomtest(E17,F17,$B$2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f>_xll.acq_binomtest(E18,F18,$B$2,TRUE)</f>
+        <v>0.94551380382129468</v>
+      </c>
+      <c r="H18">
+        <f>_xll.acq_binomtest(E18,F18,$B$2,FALSE)</f>
+        <v>0.99823256793585935</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f>_xll.acq_binomtest(E19,F19,$B$2,TRUE)</f>
+        <v>1.7674320641406526E-3</v>
+      </c>
+      <c r="H19">
+        <f>_xll.acq_binomtest(E19,F19,$B$2,FALSE)</f>
+        <v>5.4486196178705315E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B9D5F-797C-49CC-9435-B3BF433B0ECB}">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1">
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">_xll.acq_min(H2:L18)</f>
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="array" aca="1" ref="D2" ca="1">MIN(IF(ISNUMBER(H2:L18), H2:L18))</f>
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="E2">
+        <f ca="1">C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f ca="1">RANDBETWEEN(-1000,1000)/1000</f>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:L18" ca="1" si="0">RANDBETWEEN(-1000,1000)/1000</f>
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6">
+        <f ca="1">_xll.acq_absmin(H2:L18)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="array" aca="1" ref="D3" ca="1">MIN(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" ca="1" si="1">C3-D3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H18" ca="1" si="2">RANDBETWEEN(-1000,1000)/1000</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.57799999999999996</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O3">
+        <f>17*5</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6">
+        <f ca="1">_xll.acq_max(H2:L18)</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="array" aca="1" ref="D4" ca="1">MAX(IF(ISNUMBER(H2:L18), H2:L18))</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6">
+        <f ca="1">_xll.acq_absmax(H2:L18)</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="array" aca="1" ref="D5" ca="1">MAX(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.65800000000000003</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <f ca="1">_xll.acq_sum(H2:L18)</f>
+        <v>4.4000000000000233E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="array" aca="1" ref="D6" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18))</f>
+        <v>4.3999999999999789E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.749</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <f ca="1">_xll.acq_count_unique(H2:L18, TRUE)</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="array" aca="1" ref="D7" ca="1">COUNT(H2:L18)</f>
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6">
+        <f ca="1">_xll.acq_mean(H2:L18)</f>
+        <v>5.6410256410256709E-4</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="array" aca="1" ref="D8" ca="1">AVERAGE(IF(ISNUMBER(H2:L18), H2:L18))</f>
+        <v>5.6410256410256135E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7462715141731735E-18</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.68799999999999994</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.182</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
+        <f ca="1">_xll.acq_stdev(H2:L18)</f>
+        <v>0.51218527465923458</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.S(IF(ISNUMBER(H2:L18), H2:L18))</f>
+        <v>0.51218527465923458</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.88500000000000001</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6">
+        <f ca="1">_xll.acq_sumofsquares(H2:L18)</f>
+        <v>20.199723999999993</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="array" aca="1" ref="D10" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18^2))</f>
+        <v>20.199723999999993</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="J10" s="5" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="H11" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="H12" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.498</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="H13" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.151</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="H14" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.313</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="H15" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.74299999999999999</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="H16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.04</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.114</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.75700000000000001</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.92600000000000005</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Distribution/Examples/ACQ.Stats.xlsx
+++ b/Distribution/Examples/ACQ.Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71F19D-08C8-45E5-9F6A-C67FDED8894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C21053-B28D-45C5-8A19-4DB2DB4B3CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1830" windowWidth="24450" windowHeight="12690" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>acq_sumofsquares</t>
+  </si>
+  <si>
+    <t>acq_count</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>Is64 Bit Process</t>
+  </si>
+  <si>
+    <t>Number of Logical Cores</t>
   </si>
 </sst>
 </file>
@@ -787,12 +802,12 @@
   <dimension ref="B2:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
@@ -839,7 +854,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.4.8035.38349</v>
+        <v>1.5.8035.39699</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -910,6 +925,13 @@
       </c>
     </row>
     <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <f>_xll.acq_is64bit()</f>
+        <v>1</v>
+      </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -922,11 +944,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6">
+        <f>_xll.acq_cpu_cores()</f>
+        <v>32</v>
+      </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -940,12 +965,6 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
@@ -958,15 +977,27 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1935,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2190,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B9D5F-797C-49CC-9435-B3BF433B0ECB}">
-  <dimension ref="B1:O18"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2201,7 +2232,7 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1">
       <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
@@ -2212,17 +2243,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">_xll.acq_min(H2:L18)</f>
-        <v>-0.92800000000000005</v>
+        <v>-0.98699999999999999</v>
       </c>
       <c r="D2" s="6">
         <f t="array" aca="1" ref="D2" ca="1">MIN(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-0.92800000000000005</v>
+        <v>-0.98699999999999999</v>
       </c>
       <c r="E2">
         <f ca="1">C2-D2</f>
@@ -2230,77 +2261,73 @@
       </c>
       <c r="H2" s="5">
         <f ca="1">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.45800000000000002</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:L18" ca="1" si="0">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.7</v>
+        <v>-0.82699999999999996</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73599999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57699999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">_xll.acq_absmin(H2:L18)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D3" s="6">
         <f t="array" aca="1" ref="D3" ca="1">MIN(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" ca="1" si="1">C3-D3</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" ref="E3:E11" ca="1" si="1">C3-D3</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H18" ca="1" si="2">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.95499999999999996</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>-0.93700000000000006</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57799999999999996</v>
+        <v>-0.223</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6999999999999999E-2</v>
+        <v>0.47</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="O3">
-        <f>17*5</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>-0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">_xll.acq_max(H2:L18)</f>
-        <v>0.95499999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="D4" s="6">
         <f t="array" aca="1" ref="D4" ca="1">MAX(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.95499999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -2308,35 +2335,35 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>-0.82699999999999996</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51400000000000001</v>
+        <v>-0.54200000000000004</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33800000000000002</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+        <v>-0.374</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">_xll.acq_absmax(H2:L18)</f>
-        <v>0.95499999999999996</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D5" s="6">
         <f t="array" aca="1" ref="D5" ca="1">MAX(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
-        <v>0.95499999999999996</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -2344,146 +2371,144 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90200000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19800000000000001</v>
+        <v>-0.80400000000000005</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65800000000000003</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">_xll.acq_sum(H2:L18)</f>
-        <v>4.4000000000000233E-2</v>
+        <v>-1.8860000000000006</v>
       </c>
       <c r="D6" s="6">
         <f t="array" aca="1" ref="D6" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>4.3999999999999789E-2</v>
+        <v>-1.885999999999999</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4408920985006262E-16</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32900000000000001</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19800000000000001</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56899999999999995</v>
+        <v>-0.154</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.749</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>-0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">_xll.acq_count_unique(H2:L18, TRUE)</f>
-        <v>80</v>
+        <f ca="1">_xll.acq_count_unique(H2:L18)</f>
+        <v>77</v>
       </c>
       <c r="D7" s="6">
         <f t="array" aca="1" ref="D7" ca="1">COUNT(H2:L18)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23899999999999999</v>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36899999999999999</v>
+        <v>-0.96499999999999997</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35299999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">_xll.acq_mean(H2:L18)</f>
-        <v>5.6410256410256709E-4</v>
+        <v>-2.4815789473684218E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="array" aca="1" ref="D8" ca="1">AVERAGE(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>5.6410256410256135E-4</v>
+        <v>-2.4815789473684197E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7462715141731735E-18</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.68799999999999994</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.182</v>
+        <v>-0.95099999999999996</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28899999999999998</v>
+        <v>-0.97599999999999998</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1999999999999995E-2</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>-0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">_xll.acq_stdev(H2:L18)</f>
-        <v>0.51218527465923458</v>
+        <v>0.61549051897439366</v>
       </c>
       <c r="D9" s="6">
         <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.S(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.51218527465923458</v>
+        <v>0.61549051897439355</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
@@ -2491,35 +2516,35 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.88500000000000001</v>
+        <v>-0.626</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23599999999999999</v>
+        <v>-0.45400000000000001</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">_xll.acq_sumofsquares(H2:L18)</f>
-        <v>20.199723999999993</v>
+        <v>28.458946000000001</v>
       </c>
       <c r="D10" s="6">
         <f t="array" aca="1" ref="D10" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18^2))</f>
-        <v>20.199723999999993</v>
+        <v>28.458945999999994</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
@@ -2527,11 +2552,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999998E-2</v>
+        <v>-0.55200000000000005</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57599999999999996</v>
+        <v>0.872</v>
       </c>
       <c r="J10" s="5" t="e">
         <f>1/0</f>
@@ -2539,42 +2564,58 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9999999999999993E-3</v>
+        <v>0.753</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28399999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6">
+        <f ca="1">_xll.acq_count(H2:L18)</f>
+        <v>76</v>
+      </c>
+      <c r="D11" s="6">
+        <f ca="1">COUNT(H2:L18)</f>
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22500000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11600000000000001</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>49</v>
+        <v>-0.68500000000000005</v>
+      </c>
+      <c r="J11" s="5" t="e">
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+        <v>-0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="H12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.498</v>
+        <v>0.39</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45700000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>49</v>
@@ -2585,138 +2626,147 @@
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="H13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13800000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.151</v>
+        <v>0.31</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92800000000000005</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17699999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="H14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86599999999999999</v>
+        <v>-0.75800000000000001</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67900000000000005</v>
+        <v>-0.88</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.313</v>
+        <v>-0.78600000000000003</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>-0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="H15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34599999999999997</v>
+        <v>-0.153</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38100000000000001</v>
+        <v>-0.95299999999999996</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74299999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="H16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.04</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64900000000000002</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92500000000000004</v>
+        <v>-0.98699999999999999</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="H17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.39200000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48499999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.375</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47399999999999998</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47699999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12">
+        <v>-0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="H18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.114</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82699999999999996</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75700000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92600000000000005</v>
+        <v>0.746</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6000000000000002E-2</v>
+        <v>-0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="str">
+        <f ca="1">_xll.acq_join(H2:L18, "|")</f>
+        <v>-0.342|-0.022|-0.827|0.875|0.045|0.804|-0.383|-0.626|-0.552|0.652|0.39|0.937|-0.758|-0.153|-0.244|0.896|-0.085|-0.827|-0.937|-0.542|text|text|text3|-0.951|0.921|0.872|-0.685|0.565|0.31|-0.88|-0.953|text|0.351|0.099|0.447|-0.223|0.138|-0.804|-0.341|-0.965|-0.976|text|||text|0.811|-0.786|0.621|0.099|0.941|0.448|0.98|0.47|text2|-0.145|-0.154|0.49|-0.278|-0.454|0.753|0.136|-0.467|0.411|0.336|-0.052|-0.987|-0.057|0.746|0.815|-0.798|-0.374|0.151|-0.825|0.296|-0.256|0.515|0.234|-0.852|0.186|0.838|-0.207|0.579|0.045|-0.787|-0.534</v>
       </c>
     </row>
   </sheetData>

--- a/Distribution/Examples/ACQ.Stats.xlsx
+++ b/Distribution/Examples/ACQ.Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C21053-B28D-45C5-8A19-4DB2DB4B3CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286022C-4C69-459A-B943-C9AF50140F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -2221,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B9D5F-797C-49CC-9435-B3BF433B0ECB}">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">_xll.acq_min(H2:L18)</f>
-        <v>-0.98699999999999999</v>
+        <v>-0.94599999999999995</v>
       </c>
       <c r="D2" s="6">
         <f t="array" aca="1" ref="D2" ca="1">MIN(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-0.98699999999999999</v>
+        <v>-0.94599999999999995</v>
       </c>
       <c r="E2">
         <f ca="1">C2-D2</f>
@@ -2261,23 +2261,23 @@
       </c>
       <c r="H2" s="5">
         <f ca="1">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-0.34200000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:L18" ca="1" si="0">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-0.82699999999999996</v>
+        <v>0.439</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44700000000000001</v>
+        <v>-0.51400000000000001</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81499999999999995</v>
+        <v>-0.14499999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C3" s="6">
         <f ca="1">_xll.acq_absmin(H2:L18)</f>
-        <v>2.1999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="6">
         <f t="array" aca="1" ref="D3" ca="1">MIN(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
@@ -2294,27 +2294,27 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" ca="1" si="1">C3-D3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H18" ca="1" si="2">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.90100000000000002</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93700000000000006</v>
+        <v>-0.85399999999999998</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.223</v>
+        <v>-0.85</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>-0.81299999999999994</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79800000000000004</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">_xll.acq_max(H2:L18)</f>
-        <v>0.98</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D4" s="6">
         <f t="array" aca="1" ref="D4" ca="1">MAX(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.98</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -2335,22 +2335,22 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.82699999999999996</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54200000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>-0.61799999999999999</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.374</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">_xll.acq_absmax(H2:L18)</f>
-        <v>0.98699999999999999</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D5" s="6">
         <f t="array" aca="1" ref="D5" ca="1">MAX(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
-        <v>0.98699999999999999</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -2371,22 +2371,22 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.875</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80400000000000005</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14499999999999999</v>
+        <v>-0.86799999999999999</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.151</v>
+        <v>-0.13900000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -2395,11 +2395,11 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">_xll.acq_sum(H2:L18)</f>
-        <v>-1.8860000000000006</v>
+        <v>-2.488</v>
       </c>
       <c r="D6" s="6">
         <f t="array" aca="1" ref="D6" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-1.885999999999999</v>
+        <v>-2.4879999999999995</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -2407,22 +2407,22 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34100000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.154</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82499999999999996</v>
+        <v>-0.27100000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C7" s="6">
         <f ca="1">_xll.acq_count_unique(H2:L18)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6">
         <f t="array" aca="1" ref="D7" ca="1">COUNT(H2:L18)</f>
@@ -2439,26 +2439,26 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80400000000000005</v>
+        <v>-0.311</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96499999999999997</v>
+        <v>-0.85799999999999998</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>-0.62</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29599999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -2467,11 +2467,11 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">_xll.acq_mean(H2:L18)</f>
-        <v>-2.4815789473684218E-2</v>
+        <v>-3.2736842105263154E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="array" aca="1" ref="D8" ca="1">AVERAGE(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-2.4815789473684197E-2</v>
+        <v>-3.2736842105263154E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -2479,23 +2479,23 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.38300000000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95099999999999996</v>
+        <v>-0.69499999999999995</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97599999999999998</v>
+        <v>-0.94599999999999995</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27800000000000002</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25600000000000001</v>
+        <v>-0.85899999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -2504,11 +2504,11 @@
       </c>
       <c r="C9" s="6">
         <f ca="1">_xll.acq_stdev(H2:L18)</f>
-        <v>0.61549051897439366</v>
+        <v>0.58206458675811457</v>
       </c>
       <c r="D9" s="6">
         <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.S(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.61549051897439355</v>
+        <v>0.58206458675811457</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
@@ -2516,22 +2516,22 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.626</v>
+        <v>0.04</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92100000000000004</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45400000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51500000000000001</v>
+        <v>-0.50800000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -2540,11 +2540,11 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">_xll.acq_sumofsquares(H2:L18)</f>
-        <v>28.458946000000001</v>
+        <v>25.491387999999997</v>
       </c>
       <c r="D10" s="6">
         <f t="array" aca="1" ref="D10" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18^2))</f>
-        <v>28.458945999999994</v>
+        <v>25.491388000000001</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.55200000000000005</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.872</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="J10" s="5" t="e">
         <f>1/0</f>
@@ -2564,11 +2564,11 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.753</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23400000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -2589,11 +2589,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65200000000000002</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68500000000000005</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J11" s="5" t="e">
         <f>SQRT(-1)</f>
@@ -2601,163 +2601,163 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13600000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85199999999999998</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="H12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>-0.81</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56499999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46700000000000003</v>
+        <v>-0.192</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.186</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="H13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93700000000000006</v>
+        <v>-0.106</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81100000000000005</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41099999999999998</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83799999999999997</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="H14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.75800000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78600000000000003</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33600000000000002</v>
+        <v>-0.1</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20699999999999999</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="H15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.153</v>
+        <v>-0.64300000000000002</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95299999999999996</v>
+        <v>0.498</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.621</v>
+        <v>-0.128</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1999999999999998E-2</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57899999999999996</v>
+        <v>-0.64100000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="H16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.24399999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9000000000000005E-2</v>
+        <v>-0.67</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98699999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4999999999999998E-2</v>
+        <v>-0.52500000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="H17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89600000000000002</v>
+        <v>-0.76100000000000001</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35099999999999998</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94099999999999995</v>
+        <v>-0.85899999999999999</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78700000000000003</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="H18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.5000000000000006E-2</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9000000000000005E-2</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44800000000000001</v>
+        <v>-0.65700000000000003</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.746</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53400000000000003</v>
+        <v>-0.63600000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -2766,7 +2766,25 @@
       </c>
       <c r="C25" t="str">
         <f ca="1">_xll.acq_join(H2:L18, "|")</f>
-        <v>-0.342|-0.022|-0.827|0.875|0.045|0.804|-0.383|-0.626|-0.552|0.652|0.39|0.937|-0.758|-0.153|-0.244|0.896|-0.085|-0.827|-0.937|-0.542|text|text|text3|-0.951|0.921|0.872|-0.685|0.565|0.31|-0.88|-0.953|text|0.351|0.099|0.447|-0.223|0.138|-0.804|-0.341|-0.965|-0.976|text|||text|0.811|-0.786|0.621|0.099|0.941|0.448|0.98|0.47|text2|-0.145|-0.154|0.49|-0.278|-0.454|0.753|0.136|-0.467|0.411|0.336|-0.052|-0.987|-0.057|0.746|0.815|-0.798|-0.374|0.151|-0.825|0.296|-0.256|0.515|0.234|-0.852|0.186|0.838|-0.207|0.579|0.045|-0.787|-0.534</v>
+        <v>0.33|-0.901|-0.072|0.178|0.204|-0.311|0.815|0.04|0.416|0.148|-0.81|-0.106|0.22|-0.643|0.863|-0.761|0.519|0.439|-0.854|0.05|text|text|text3|-0.695|0.857|0.712|0.895|0.593|-0.909|0.609|0.498|text|0.077|-0.094|-0.514|-0.85|-0.618|0.786|0.451|-0.858|-0.946|text|||text|0.858|0.428|-0.128|-0.67|-0.859|-0.657|0.574|-0.813|text2|-0.868|-0.044|-0.62|0.582|0.626|-0.085|0.163|-0.192|0.174|-0.1|0.965|0.466|-0.266|-0.713|-0.145|0.101|0.098|-0.139|-0.271|0.542|-0.859|-0.508|0.172|0.971|0.294|0.882|-0.053|-0.641|-0.525|-0.35|-0.636</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="str">
+        <f ca="1">_xll.acq_join(J2:J18, "|")</f>
+        <v>-0.514|-0.85|-0.618|0.786|0.451|-0.858|-0.946|text|||text|0.858|0.428|-0.128|-0.67|-0.859|-0.657</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="str">
+        <f ca="1">_xll.acq_join(H7:L7, "|")</f>
+        <v>-0.311|text3|-0.858|-0.62|0.542</v>
       </c>
     </row>
   </sheetData>

--- a/Distribution/Examples/ACQ.Stats.xlsx
+++ b/Distribution/Examples/ACQ.Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286022C-4C69-459A-B943-C9AF50140F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDDD7A4-C8DA-48D0-9515-CF681486F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="615" windowWidth="24000" windowHeight="13830" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,35 @@
     <sheet name="BinomialConfidence" sheetId="22" r:id="rId3"/>
     <sheet name="MinMax" sheetId="23" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">BinomialConfidence!$O$4:$O$5</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">BinomialConfidence!$B$8</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +63,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>chirokov</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DB9A6BDF-1C94-4C02-8BE4-F42BE5512C1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>example from https://en.wikipedia.org/wiki/Logistic_regression</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>date</t>
   </si>
@@ -163,9 +216,6 @@
     <t>up</t>
   </si>
   <si>
-    <t>confidance</t>
-  </si>
-  <si>
     <t>acq_binomtest</t>
   </si>
   <si>
@@ -215,20 +265,58 @@
   </si>
   <si>
     <t>Number of Logical Cores</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>acq_metric_auc</t>
+  </si>
+  <si>
+    <t>acq_metric_gini</t>
+  </si>
+  <si>
+    <t>acq_metric_ks</t>
+  </si>
+  <si>
+    <t>acq_metric_logloss</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>Example of Logistic Regression</t>
+  </si>
+  <si>
+    <t>Solved using Excel Solver: to min logloss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000000000000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +366,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -452,7 +547,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,9 +572,14 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -499,6 +599,554 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3303399058588745E-2"/>
+          <c:y val="4.2803645522452194E-2"/>
+          <c:w val="0.89113186264940025"/>
+          <c:h val="0.85361894711794961"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BinomialConfidence!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BinomialConfidence!$L$5:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.4710367215295704E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9772987379619577E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0892011500569702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10002868131612046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13934454437362082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.190836590503977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.190836590503977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25570327505675872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33353033452042685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42162661686229008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51501092750432387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60735869013936428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69261735651891632</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76648084630158497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87444749031217317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91027762500815734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93662364725227998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95561069393772857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96909705568372428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98519443462228617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FE8B-493B-9909-93CE0278C5FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BinomialConfidence!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BinomialConfidence!$K$5:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE8B-493B-9909-93CE0278C5FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1558394144"/>
+        <c:axId val="1558387904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1558394144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558387904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1558387904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558394144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A0EDDB-5649-4F77-9AA3-B910748FC356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,7 +1450,7 @@
   <dimension ref="B2:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -854,18 +1502,18 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.5.8035.39699</v>
+        <v>1.5.8041.39857</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="13">
         <f ca="1">TODAY()</f>
-        <v>44561</v>
+        <v>44567</v>
       </c>
       <c r="J4" s="14" t="str">
         <f ca="1">_xll.acq_tostring(H4)</f>
-        <v>44561</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -926,7 +1574,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="b">
         <f>_xll.acq_is64bit()</f>
@@ -946,7 +1594,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6">
         <f>_xll.acq_cpu_cores()</f>
@@ -1003,7 +1651,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">_xll.acq_join(H3:H10)</f>
-        <v>3.14159265358979,44561,True,,,,,</v>
+        <v>3.14159265358979,44567,True,,,,,</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
@@ -1012,7 +1660,7 @@
       </c>
       <c r="H14" t="str">
         <f ca="1">_xll.acq_join(J3:J10, "|")</f>
-        <v>3.14159265358979|44561|TRUE|||||</v>
+        <v>3.14159265358979|44567|TRUE|||||</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
@@ -1931,33 +2579,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F123368-5BB9-4931-95EC-690D8D570C5B}">
-  <dimension ref="A2:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F123368-5BB9-4931-95EC-690D8D570C5B}">
+  <dimension ref="A1:Q806"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17">
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>0.95</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -1970,252 +2634,2864 @@
       <c r="H4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-4.0777123498345098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="27">
+        <f>_xll.acq_metric_auc(K5:K24,L5:L24)</f>
+        <v>0.89</v>
+      </c>
       <c r="E5">
         <v>-1</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5" s="6" t="e">
         <f>_xll.acq_binomtest(E5,F5,$B$2,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" t="e">
+      <c r="H5" s="6" t="e">
         <f>_xll.acq_binomtest(E5,F5,$B$2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>1/(1+EXP(-($O$4+J5*$O$5)))</f>
+        <v>3.4710367215295704E-2</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.5046451305386284</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="27">
+        <f>_xll.acq_metric_gini(K5:K24,L5:L24)</f>
+        <v>0.78</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f>_xll.acq_binomtest(E6,F6,$B$2,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <f>_xll.acq_binomtest(E6,F6,$B$2,FALSE)</f>
         <v>0.2775327998628892</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L24" si="0">1/(1+EXP(-($O$4+J6*$O$5)))</f>
+        <v>4.9772987379619577E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="27">
+        <f>_xll.acq_metric_ks(K5:K24,L5:L24)</f>
+        <v>0.6</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f>_xll.acq_binomtest(E7,F7,$B$2,TRUE)</f>
         <v>1.7876213095072889E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f>_xll.acq_binomtest(E7,F7,$B$2,FALSE)</f>
         <v>0.40415002679523848</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>7.0892011500569702E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="27">
+        <f>_xll.acq_metric_logloss(K5:K24,L5:L24)</f>
+        <v>0.40149392321724509</v>
+      </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f>_xll.acq_binomtest(E8,F8,$B$2,TRUE)</f>
         <v>5.6682151454375218E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <f>_xll.acq_binomtest(E8,F8,$B$2,FALSE)</f>
         <v>0.50983752846335817</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.10002868131612046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f>_xll.acq_binomtest(E9,F9,$B$2,TRUE)</f>
         <v>0.10779126740630099</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <f>_xll.acq_binomtest(E9,F9,$B$2,FALSE)</f>
         <v>0.60322185253885463</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.13934454437362082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f>_xll.acq_binomtest(E10,F10,$B$2,TRUE)</f>
         <v>0.16818032970623617</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <f>_xll.acq_binomtest(E10,F10,$B$2,FALSE)</f>
         <v>0.68732623026634165</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="29">
+        <v>1.75</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.190836590503977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f>_xll.acq_binomtest(E11,F11,$B$2,TRUE)</f>
         <v>0.236593090512564</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <f>_xll.acq_binomtest(E11,F11,$B$2,FALSE)</f>
         <v>0.76340690948743595</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="29">
+        <v>1.75</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.190836590503977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f>_xll.acq_binomtest(E12,F12,$B$2,TRUE)</f>
         <v>0.31267376973365829</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <f>_xll.acq_binomtest(E12,F12,$B$2,FALSE)</f>
         <v>0.8318196702937638</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="29">
+        <v>2</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.25570327505675872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <f>_xll.acq_binomtest(E13,F13,$B$2,TRUE)</f>
         <v>0.39677814746114531</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <f>_xll.acq_binomtest(E13,F13,$B$2,FALSE)</f>
         <v>0.89220873259369882</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.33353033452042685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <f>_xll.acq_binomtest(E14,F14,$B$2,TRUE)</f>
         <v>0.49016247153664178</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <f>_xll.acq_binomtest(E14,F14,$B$2,FALSE)</f>
         <v>0.94331784854562473</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.42162661686229008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <f>_xll.acq_binomtest(E15,F15,$B$2,TRUE)</f>
         <v>0.59584997320476163</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <f>_xll.acq_binomtest(E15,F15,$B$2,FALSE)</f>
         <v>0.98212378690492708</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="29">
+        <v>2.75</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.51501092750432387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <f>_xll.acq_binomtest(E16,F16,$B$2,TRUE)</f>
         <v>0.72246720013711063</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <f>_xll.acq_binomtest(E16,F16,$B$2,FALSE)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="J16" s="29">
+        <v>3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0.60735869013936428</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12">
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17" t="e">
+      <c r="G17" s="6" t="e">
         <f>_xll.acq_binomtest(E17,F17,$B$2,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" t="e">
+      <c r="H17" s="6" t="e">
         <f>_xll.acq_binomtest(E17,F17,$B$2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="5:8">
+      <c r="J17" s="29">
+        <v>3.25</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.69261735651891632</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
       <c r="E18">
         <v>99</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <f>_xll.acq_binomtest(E18,F18,$B$2,TRUE)</f>
         <v>0.94551380382129468</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <f>_xll.acq_binomtest(E18,F18,$B$2,FALSE)</f>
         <v>0.99823256793585935</v>
       </c>
-    </row>
-    <row r="19" spans="5:8">
+      <c r="J18" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.76648084630158497</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12">
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <f>_xll.acq_binomtest(E19,F19,$B$2,TRUE)</f>
         <v>1.7674320641406526E-3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <f>_xll.acq_binomtest(E19,F19,$B$2,FALSE)</f>
         <v>5.4486196178705315E-2</v>
       </c>
+      <c r="J19" s="29">
+        <v>4</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0.87444749031217317</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="J20" s="29">
+        <v>4.25</v>
+      </c>
+      <c r="K20" s="29">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.91027762500815734</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="J21" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="K21" s="29">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.93662364725227998</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="J22" s="29">
+        <v>4.75</v>
+      </c>
+      <c r="K22" s="29">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0.95561069393772857</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="J23" s="29">
+        <v>5</v>
+      </c>
+      <c r="K23" s="29">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.96909705568372428</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="J24" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="K24" s="29">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.98519443462228617</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="5:12">
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="24"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="24"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="24"/>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="24"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="24"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="24"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="24"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="24"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="24"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="24"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="24"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="24"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="24"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="24"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="24"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="24"/>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92" s="24"/>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93" s="24"/>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94" s="24"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="24"/>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96" s="24"/>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" s="24"/>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98" s="24"/>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99" s="24"/>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100" s="24"/>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101" s="24"/>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" s="24"/>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103" s="24"/>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104" s="24"/>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105" s="24"/>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" s="24"/>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="24"/>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" s="24"/>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" s="24"/>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" s="24"/>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" s="24"/>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" s="24"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="24"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="24"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="24"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="24"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="24"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="24"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="24"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="24"/>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="24"/>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" s="24"/>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" s="24"/>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" s="24"/>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" s="24"/>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="24"/>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" s="24"/>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" s="24"/>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" s="24"/>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" s="24"/>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="24"/>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="24"/>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="24"/>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="24"/>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="24"/>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" s="24"/>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="24"/>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="24"/>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="24"/>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="24"/>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" s="24"/>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="24"/>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" s="24"/>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="24"/>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="24"/>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="24"/>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" s="24"/>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" s="24"/>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" s="24"/>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="24"/>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" s="24"/>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" s="24"/>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" s="24"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="24"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="24"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="24"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="24"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="24"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="24"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="24"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="24"/>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" s="24"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="24"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="24"/>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" s="24"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="24"/>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" s="24"/>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" s="24"/>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" s="24"/>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" s="24"/>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" s="24"/>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" s="24"/>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" s="24"/>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" s="24"/>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" s="24"/>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" s="24"/>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="24"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="24"/>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" s="24"/>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" s="24"/>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" s="24"/>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" s="24"/>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" s="24"/>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" s="24"/>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" s="24"/>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" s="24"/>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" s="24"/>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" s="24"/>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" s="24"/>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" s="24"/>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" s="24"/>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" s="24"/>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" s="24"/>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" s="24"/>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" s="24"/>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" s="24"/>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" s="24"/>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" s="24"/>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" s="24"/>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" s="24"/>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" s="24"/>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" s="24"/>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" s="24"/>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" s="24"/>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" s="24"/>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" s="24"/>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" s="24"/>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" s="24"/>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" s="24"/>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" s="24"/>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" s="24"/>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" s="24"/>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" s="24"/>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" s="24"/>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" s="24"/>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" s="24"/>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" s="24"/>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" s="24"/>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" s="24"/>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" s="24"/>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" s="24"/>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" s="24"/>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" s="24"/>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" s="24"/>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" s="24"/>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" s="24"/>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" s="24"/>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" s="24"/>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" s="24"/>
+    </row>
+    <row r="230" spans="10:10">
+      <c r="J230" s="24"/>
+    </row>
+    <row r="231" spans="10:10">
+      <c r="J231" s="24"/>
+    </row>
+    <row r="232" spans="10:10">
+      <c r="J232" s="24"/>
+    </row>
+    <row r="233" spans="10:10">
+      <c r="J233" s="24"/>
+    </row>
+    <row r="234" spans="10:10">
+      <c r="J234" s="24"/>
+    </row>
+    <row r="235" spans="10:10">
+      <c r="J235" s="24"/>
+    </row>
+    <row r="236" spans="10:10">
+      <c r="J236" s="24"/>
+    </row>
+    <row r="237" spans="10:10">
+      <c r="J237" s="24"/>
+    </row>
+    <row r="238" spans="10:10">
+      <c r="J238" s="24"/>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" s="24"/>
+    </row>
+    <row r="240" spans="10:10">
+      <c r="J240" s="24"/>
+    </row>
+    <row r="241" spans="10:10">
+      <c r="J241" s="24"/>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" s="24"/>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" s="24"/>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" s="24"/>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" s="24"/>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" s="24"/>
+    </row>
+    <row r="247" spans="10:10">
+      <c r="J247" s="24"/>
+    </row>
+    <row r="248" spans="10:10">
+      <c r="J248" s="24"/>
+    </row>
+    <row r="249" spans="10:10">
+      <c r="J249" s="24"/>
+    </row>
+    <row r="250" spans="10:10">
+      <c r="J250" s="24"/>
+    </row>
+    <row r="251" spans="10:10">
+      <c r="J251" s="24"/>
+    </row>
+    <row r="252" spans="10:10">
+      <c r="J252" s="24"/>
+    </row>
+    <row r="253" spans="10:10">
+      <c r="J253" s="24"/>
+    </row>
+    <row r="254" spans="10:10">
+      <c r="J254" s="24"/>
+    </row>
+    <row r="255" spans="10:10">
+      <c r="J255" s="24"/>
+    </row>
+    <row r="256" spans="10:10">
+      <c r="J256" s="24"/>
+    </row>
+    <row r="257" spans="10:10">
+      <c r="J257" s="24"/>
+    </row>
+    <row r="258" spans="10:10">
+      <c r="J258" s="24"/>
+    </row>
+    <row r="259" spans="10:10">
+      <c r="J259" s="24"/>
+    </row>
+    <row r="260" spans="10:10">
+      <c r="J260" s="24"/>
+    </row>
+    <row r="261" spans="10:10">
+      <c r="J261" s="24"/>
+    </row>
+    <row r="262" spans="10:10">
+      <c r="J262" s="24"/>
+    </row>
+    <row r="263" spans="10:10">
+      <c r="J263" s="24"/>
+    </row>
+    <row r="264" spans="10:10">
+      <c r="J264" s="24"/>
+    </row>
+    <row r="265" spans="10:10">
+      <c r="J265" s="24"/>
+    </row>
+    <row r="266" spans="10:10">
+      <c r="J266" s="24"/>
+    </row>
+    <row r="267" spans="10:10">
+      <c r="J267" s="24"/>
+    </row>
+    <row r="268" spans="10:10">
+      <c r="J268" s="24"/>
+    </row>
+    <row r="269" spans="10:10">
+      <c r="J269" s="24"/>
+    </row>
+    <row r="270" spans="10:10">
+      <c r="J270" s="24"/>
+    </row>
+    <row r="271" spans="10:10">
+      <c r="J271" s="24"/>
+    </row>
+    <row r="272" spans="10:10">
+      <c r="J272" s="24"/>
+    </row>
+    <row r="273" spans="10:10">
+      <c r="J273" s="24"/>
+    </row>
+    <row r="274" spans="10:10">
+      <c r="J274" s="24"/>
+    </row>
+    <row r="275" spans="10:10">
+      <c r="J275" s="24"/>
+    </row>
+    <row r="276" spans="10:10">
+      <c r="J276" s="24"/>
+    </row>
+    <row r="277" spans="10:10">
+      <c r="J277" s="24"/>
+    </row>
+    <row r="278" spans="10:10">
+      <c r="J278" s="24"/>
+    </row>
+    <row r="279" spans="10:10">
+      <c r="J279" s="24"/>
+    </row>
+    <row r="280" spans="10:10">
+      <c r="J280" s="24"/>
+    </row>
+    <row r="281" spans="10:10">
+      <c r="J281" s="24"/>
+    </row>
+    <row r="282" spans="10:10">
+      <c r="J282" s="24"/>
+    </row>
+    <row r="283" spans="10:10">
+      <c r="J283" s="24"/>
+    </row>
+    <row r="284" spans="10:10">
+      <c r="J284" s="24"/>
+    </row>
+    <row r="285" spans="10:10">
+      <c r="J285" s="24"/>
+    </row>
+    <row r="286" spans="10:10">
+      <c r="J286" s="24"/>
+    </row>
+    <row r="287" spans="10:10">
+      <c r="J287" s="24"/>
+    </row>
+    <row r="288" spans="10:10">
+      <c r="J288" s="24"/>
+    </row>
+    <row r="289" spans="10:10">
+      <c r="J289" s="24"/>
+    </row>
+    <row r="290" spans="10:10">
+      <c r="J290" s="24"/>
+    </row>
+    <row r="291" spans="10:10">
+      <c r="J291" s="24"/>
+    </row>
+    <row r="292" spans="10:10">
+      <c r="J292" s="24"/>
+    </row>
+    <row r="293" spans="10:10">
+      <c r="J293" s="24"/>
+    </row>
+    <row r="294" spans="10:10">
+      <c r="J294" s="24"/>
+    </row>
+    <row r="295" spans="10:10">
+      <c r="J295" s="24"/>
+    </row>
+    <row r="296" spans="10:10">
+      <c r="J296" s="24"/>
+    </row>
+    <row r="297" spans="10:10">
+      <c r="J297" s="24"/>
+    </row>
+    <row r="298" spans="10:10">
+      <c r="J298" s="24"/>
+    </row>
+    <row r="299" spans="10:10">
+      <c r="J299" s="24"/>
+    </row>
+    <row r="300" spans="10:10">
+      <c r="J300" s="24"/>
+    </row>
+    <row r="301" spans="10:10">
+      <c r="J301" s="24"/>
+    </row>
+    <row r="302" spans="10:10">
+      <c r="J302" s="24"/>
+    </row>
+    <row r="303" spans="10:10">
+      <c r="J303" s="24"/>
+    </row>
+    <row r="304" spans="10:10">
+      <c r="J304" s="24"/>
+    </row>
+    <row r="305" spans="10:10">
+      <c r="J305" s="24"/>
+    </row>
+    <row r="306" spans="10:10">
+      <c r="J306" s="24"/>
+    </row>
+    <row r="307" spans="10:10">
+      <c r="J307" s="24"/>
+    </row>
+    <row r="308" spans="10:10">
+      <c r="J308" s="24"/>
+    </row>
+    <row r="309" spans="10:10">
+      <c r="J309" s="24"/>
+    </row>
+    <row r="310" spans="10:10">
+      <c r="J310" s="24"/>
+    </row>
+    <row r="311" spans="10:10">
+      <c r="J311" s="24"/>
+    </row>
+    <row r="312" spans="10:10">
+      <c r="J312" s="24"/>
+    </row>
+    <row r="313" spans="10:10">
+      <c r="J313" s="24"/>
+    </row>
+    <row r="314" spans="10:10">
+      <c r="J314" s="24"/>
+    </row>
+    <row r="315" spans="10:10">
+      <c r="J315" s="24"/>
+    </row>
+    <row r="316" spans="10:10">
+      <c r="J316" s="24"/>
+    </row>
+    <row r="317" spans="10:10">
+      <c r="J317" s="24"/>
+    </row>
+    <row r="318" spans="10:10">
+      <c r="J318" s="24"/>
+    </row>
+    <row r="319" spans="10:10">
+      <c r="J319" s="24"/>
+    </row>
+    <row r="320" spans="10:10">
+      <c r="J320" s="24"/>
+    </row>
+    <row r="321" spans="10:10">
+      <c r="J321" s="24"/>
+    </row>
+    <row r="322" spans="10:10">
+      <c r="J322" s="24"/>
+    </row>
+    <row r="323" spans="10:10">
+      <c r="J323" s="24"/>
+    </row>
+    <row r="324" spans="10:10">
+      <c r="J324" s="24"/>
+    </row>
+    <row r="325" spans="10:10">
+      <c r="J325" s="24"/>
+    </row>
+    <row r="326" spans="10:10">
+      <c r="J326" s="24"/>
+    </row>
+    <row r="327" spans="10:10">
+      <c r="J327" s="24"/>
+    </row>
+    <row r="328" spans="10:10">
+      <c r="J328" s="24"/>
+    </row>
+    <row r="329" spans="10:10">
+      <c r="J329" s="24"/>
+    </row>
+    <row r="330" spans="10:10">
+      <c r="J330" s="24"/>
+    </row>
+    <row r="331" spans="10:10">
+      <c r="J331" s="24"/>
+    </row>
+    <row r="332" spans="10:10">
+      <c r="J332" s="24"/>
+    </row>
+    <row r="333" spans="10:10">
+      <c r="J333" s="24"/>
+    </row>
+    <row r="334" spans="10:10">
+      <c r="J334" s="24"/>
+    </row>
+    <row r="335" spans="10:10">
+      <c r="J335" s="24"/>
+    </row>
+    <row r="336" spans="10:10">
+      <c r="J336" s="24"/>
+    </row>
+    <row r="337" spans="10:10">
+      <c r="J337" s="24"/>
+    </row>
+    <row r="338" spans="10:10">
+      <c r="J338" s="24"/>
+    </row>
+    <row r="339" spans="10:10">
+      <c r="J339" s="24"/>
+    </row>
+    <row r="340" spans="10:10">
+      <c r="J340" s="24"/>
+    </row>
+    <row r="341" spans="10:10">
+      <c r="J341" s="24"/>
+    </row>
+    <row r="342" spans="10:10">
+      <c r="J342" s="24"/>
+    </row>
+    <row r="343" spans="10:10">
+      <c r="J343" s="24"/>
+    </row>
+    <row r="344" spans="10:10">
+      <c r="J344" s="24"/>
+    </row>
+    <row r="345" spans="10:10">
+      <c r="J345" s="24"/>
+    </row>
+    <row r="346" spans="10:10">
+      <c r="J346" s="24"/>
+    </row>
+    <row r="347" spans="10:10">
+      <c r="J347" s="24"/>
+    </row>
+    <row r="348" spans="10:10">
+      <c r="J348" s="24"/>
+    </row>
+    <row r="349" spans="10:10">
+      <c r="J349" s="24"/>
+    </row>
+    <row r="350" spans="10:10">
+      <c r="J350" s="24"/>
+    </row>
+    <row r="351" spans="10:10">
+      <c r="J351" s="24"/>
+    </row>
+    <row r="352" spans="10:10">
+      <c r="J352" s="24"/>
+    </row>
+    <row r="353" spans="10:10">
+      <c r="J353" s="24"/>
+    </row>
+    <row r="354" spans="10:10">
+      <c r="J354" s="24"/>
+    </row>
+    <row r="355" spans="10:10">
+      <c r="J355" s="24"/>
+    </row>
+    <row r="356" spans="10:10">
+      <c r="J356" s="24"/>
+    </row>
+    <row r="357" spans="10:10">
+      <c r="J357" s="24"/>
+    </row>
+    <row r="358" spans="10:10">
+      <c r="J358" s="24"/>
+    </row>
+    <row r="359" spans="10:10">
+      <c r="J359" s="24"/>
+    </row>
+    <row r="360" spans="10:10">
+      <c r="J360" s="24"/>
+    </row>
+    <row r="361" spans="10:10">
+      <c r="J361" s="24"/>
+    </row>
+    <row r="362" spans="10:10">
+      <c r="J362" s="24"/>
+    </row>
+    <row r="363" spans="10:10">
+      <c r="J363" s="24"/>
+    </row>
+    <row r="364" spans="10:10">
+      <c r="J364" s="24"/>
+    </row>
+    <row r="365" spans="10:10">
+      <c r="J365" s="24"/>
+    </row>
+    <row r="366" spans="10:10">
+      <c r="J366" s="24"/>
+    </row>
+    <row r="367" spans="10:10">
+      <c r="J367" s="24"/>
+    </row>
+    <row r="368" spans="10:10">
+      <c r="J368" s="24"/>
+    </row>
+    <row r="369" spans="10:10">
+      <c r="J369" s="24"/>
+    </row>
+    <row r="370" spans="10:10">
+      <c r="J370" s="24"/>
+    </row>
+    <row r="371" spans="10:10">
+      <c r="J371" s="24"/>
+    </row>
+    <row r="372" spans="10:10">
+      <c r="J372" s="24"/>
+    </row>
+    <row r="373" spans="10:10">
+      <c r="J373" s="24"/>
+    </row>
+    <row r="374" spans="10:10">
+      <c r="J374" s="24"/>
+    </row>
+    <row r="375" spans="10:10">
+      <c r="J375" s="24"/>
+    </row>
+    <row r="376" spans="10:10">
+      <c r="J376" s="24"/>
+    </row>
+    <row r="377" spans="10:10">
+      <c r="J377" s="24"/>
+    </row>
+    <row r="378" spans="10:10">
+      <c r="J378" s="24"/>
+    </row>
+    <row r="379" spans="10:10">
+      <c r="J379" s="24"/>
+    </row>
+    <row r="380" spans="10:10">
+      <c r="J380" s="24"/>
+    </row>
+    <row r="381" spans="10:10">
+      <c r="J381" s="24"/>
+    </row>
+    <row r="382" spans="10:10">
+      <c r="J382" s="24"/>
+    </row>
+    <row r="383" spans="10:10">
+      <c r="J383" s="24"/>
+    </row>
+    <row r="384" spans="10:10">
+      <c r="J384" s="24"/>
+    </row>
+    <row r="385" spans="10:10">
+      <c r="J385" s="24"/>
+    </row>
+    <row r="386" spans="10:10">
+      <c r="J386" s="24"/>
+    </row>
+    <row r="387" spans="10:10">
+      <c r="J387" s="24"/>
+    </row>
+    <row r="388" spans="10:10">
+      <c r="J388" s="24"/>
+    </row>
+    <row r="389" spans="10:10">
+      <c r="J389" s="24"/>
+    </row>
+    <row r="390" spans="10:10">
+      <c r="J390" s="24"/>
+    </row>
+    <row r="391" spans="10:10">
+      <c r="J391" s="24"/>
+    </row>
+    <row r="392" spans="10:10">
+      <c r="J392" s="24"/>
+    </row>
+    <row r="393" spans="10:10">
+      <c r="J393" s="24"/>
+    </row>
+    <row r="394" spans="10:10">
+      <c r="J394" s="24"/>
+    </row>
+    <row r="395" spans="10:10">
+      <c r="J395" s="24"/>
+    </row>
+    <row r="396" spans="10:10">
+      <c r="J396" s="24"/>
+    </row>
+    <row r="397" spans="10:10">
+      <c r="J397" s="24"/>
+    </row>
+    <row r="398" spans="10:10">
+      <c r="J398" s="24"/>
+    </row>
+    <row r="399" spans="10:10">
+      <c r="J399" s="24"/>
+    </row>
+    <row r="400" spans="10:10">
+      <c r="J400" s="24"/>
+    </row>
+    <row r="401" spans="10:10">
+      <c r="J401" s="24"/>
+    </row>
+    <row r="402" spans="10:10">
+      <c r="J402" s="24"/>
+    </row>
+    <row r="403" spans="10:10">
+      <c r="J403" s="24"/>
+    </row>
+    <row r="404" spans="10:10">
+      <c r="J404" s="24"/>
+    </row>
+    <row r="405" spans="10:10">
+      <c r="J405" s="24"/>
+    </row>
+    <row r="406" spans="10:10">
+      <c r="J406" s="24"/>
+    </row>
+    <row r="407" spans="10:10">
+      <c r="J407" s="24"/>
+    </row>
+    <row r="408" spans="10:10">
+      <c r="J408" s="24"/>
+    </row>
+    <row r="409" spans="10:10">
+      <c r="J409" s="24"/>
+    </row>
+    <row r="410" spans="10:10">
+      <c r="J410" s="24"/>
+    </row>
+    <row r="411" spans="10:10">
+      <c r="J411" s="24"/>
+    </row>
+    <row r="412" spans="10:10">
+      <c r="J412" s="24"/>
+    </row>
+    <row r="413" spans="10:10">
+      <c r="J413" s="24"/>
+    </row>
+    <row r="414" spans="10:10">
+      <c r="J414" s="24"/>
+    </row>
+    <row r="415" spans="10:10">
+      <c r="J415" s="24"/>
+    </row>
+    <row r="416" spans="10:10">
+      <c r="J416" s="24"/>
+    </row>
+    <row r="417" spans="10:10">
+      <c r="J417" s="24"/>
+    </row>
+    <row r="418" spans="10:10">
+      <c r="J418" s="24"/>
+    </row>
+    <row r="419" spans="10:10">
+      <c r="J419" s="24"/>
+    </row>
+    <row r="420" spans="10:10">
+      <c r="J420" s="24"/>
+    </row>
+    <row r="421" spans="10:10">
+      <c r="J421" s="24"/>
+    </row>
+    <row r="422" spans="10:10">
+      <c r="J422" s="24"/>
+    </row>
+    <row r="423" spans="10:10">
+      <c r="J423" s="24"/>
+    </row>
+    <row r="424" spans="10:10">
+      <c r="J424" s="24"/>
+    </row>
+    <row r="425" spans="10:10">
+      <c r="J425" s="24"/>
+    </row>
+    <row r="426" spans="10:10">
+      <c r="J426" s="24"/>
+    </row>
+    <row r="427" spans="10:10">
+      <c r="J427" s="24"/>
+    </row>
+    <row r="428" spans="10:10">
+      <c r="J428" s="24"/>
+    </row>
+    <row r="429" spans="10:10">
+      <c r="J429" s="24"/>
+    </row>
+    <row r="430" spans="10:10">
+      <c r="J430" s="24"/>
+    </row>
+    <row r="431" spans="10:10">
+      <c r="J431" s="24"/>
+    </row>
+    <row r="432" spans="10:10">
+      <c r="J432" s="24"/>
+    </row>
+    <row r="433" spans="10:10">
+      <c r="J433" s="24"/>
+    </row>
+    <row r="434" spans="10:10">
+      <c r="J434" s="24"/>
+    </row>
+    <row r="435" spans="10:10">
+      <c r="J435" s="24"/>
+    </row>
+    <row r="436" spans="10:10">
+      <c r="J436" s="24"/>
+    </row>
+    <row r="437" spans="10:10">
+      <c r="J437" s="24"/>
+    </row>
+    <row r="438" spans="10:10">
+      <c r="J438" s="24"/>
+    </row>
+    <row r="439" spans="10:10">
+      <c r="J439" s="24"/>
+    </row>
+    <row r="440" spans="10:10">
+      <c r="J440" s="24"/>
+    </row>
+    <row r="441" spans="10:10">
+      <c r="J441" s="24"/>
+    </row>
+    <row r="442" spans="10:10">
+      <c r="J442" s="24"/>
+    </row>
+    <row r="443" spans="10:10">
+      <c r="J443" s="24"/>
+    </row>
+    <row r="444" spans="10:10">
+      <c r="J444" s="24"/>
+    </row>
+    <row r="445" spans="10:10">
+      <c r="J445" s="24"/>
+    </row>
+    <row r="446" spans="10:10">
+      <c r="J446" s="24"/>
+    </row>
+    <row r="447" spans="10:10">
+      <c r="J447" s="24"/>
+    </row>
+    <row r="448" spans="10:10">
+      <c r="J448" s="24"/>
+    </row>
+    <row r="449" spans="10:10">
+      <c r="J449" s="24"/>
+    </row>
+    <row r="450" spans="10:10">
+      <c r="J450" s="24"/>
+    </row>
+    <row r="451" spans="10:10">
+      <c r="J451" s="24"/>
+    </row>
+    <row r="452" spans="10:10">
+      <c r="J452" s="24"/>
+    </row>
+    <row r="453" spans="10:10">
+      <c r="J453" s="24"/>
+    </row>
+    <row r="454" spans="10:10">
+      <c r="J454" s="24"/>
+    </row>
+    <row r="455" spans="10:10">
+      <c r="J455" s="24"/>
+    </row>
+    <row r="456" spans="10:10">
+      <c r="J456" s="24"/>
+    </row>
+    <row r="457" spans="10:10">
+      <c r="J457" s="24"/>
+    </row>
+    <row r="458" spans="10:10">
+      <c r="J458" s="24"/>
+    </row>
+    <row r="459" spans="10:10">
+      <c r="J459" s="24"/>
+    </row>
+    <row r="460" spans="10:10">
+      <c r="J460" s="24"/>
+    </row>
+    <row r="461" spans="10:10">
+      <c r="J461" s="24"/>
+    </row>
+    <row r="462" spans="10:10">
+      <c r="J462" s="24"/>
+    </row>
+    <row r="463" spans="10:10">
+      <c r="J463" s="24"/>
+    </row>
+    <row r="464" spans="10:10">
+      <c r="J464" s="24"/>
+    </row>
+    <row r="465" spans="10:10">
+      <c r="J465" s="24"/>
+    </row>
+    <row r="466" spans="10:10">
+      <c r="J466" s="24"/>
+    </row>
+    <row r="467" spans="10:10">
+      <c r="J467" s="24"/>
+    </row>
+    <row r="468" spans="10:10">
+      <c r="J468" s="24"/>
+    </row>
+    <row r="469" spans="10:10">
+      <c r="J469" s="24"/>
+    </row>
+    <row r="470" spans="10:10">
+      <c r="J470" s="24"/>
+    </row>
+    <row r="471" spans="10:10">
+      <c r="J471" s="24"/>
+    </row>
+    <row r="472" spans="10:10">
+      <c r="J472" s="24"/>
+    </row>
+    <row r="473" spans="10:10">
+      <c r="J473" s="24"/>
+    </row>
+    <row r="474" spans="10:10">
+      <c r="J474" s="24"/>
+    </row>
+    <row r="475" spans="10:10">
+      <c r="J475" s="24"/>
+    </row>
+    <row r="476" spans="10:10">
+      <c r="J476" s="24"/>
+    </row>
+    <row r="477" spans="10:10">
+      <c r="J477" s="24"/>
+    </row>
+    <row r="478" spans="10:10">
+      <c r="J478" s="24"/>
+    </row>
+    <row r="479" spans="10:10">
+      <c r="J479" s="24"/>
+    </row>
+    <row r="480" spans="10:10">
+      <c r="J480" s="24"/>
+    </row>
+    <row r="481" spans="10:10">
+      <c r="J481" s="24"/>
+    </row>
+    <row r="482" spans="10:10">
+      <c r="J482" s="24"/>
+    </row>
+    <row r="483" spans="10:10">
+      <c r="J483" s="24"/>
+    </row>
+    <row r="484" spans="10:10">
+      <c r="J484" s="24"/>
+    </row>
+    <row r="485" spans="10:10">
+      <c r="J485" s="24"/>
+    </row>
+    <row r="486" spans="10:10">
+      <c r="J486" s="24"/>
+    </row>
+    <row r="487" spans="10:10">
+      <c r="J487" s="24"/>
+    </row>
+    <row r="488" spans="10:10">
+      <c r="J488" s="24"/>
+    </row>
+    <row r="489" spans="10:10">
+      <c r="J489" s="24"/>
+    </row>
+    <row r="490" spans="10:10">
+      <c r="J490" s="24"/>
+    </row>
+    <row r="491" spans="10:10">
+      <c r="J491" s="24"/>
+    </row>
+    <row r="492" spans="10:10">
+      <c r="J492" s="24"/>
+    </row>
+    <row r="493" spans="10:10">
+      <c r="J493" s="24"/>
+    </row>
+    <row r="494" spans="10:10">
+      <c r="J494" s="24"/>
+    </row>
+    <row r="495" spans="10:10">
+      <c r="J495" s="24"/>
+    </row>
+    <row r="496" spans="10:10">
+      <c r="J496" s="24"/>
+    </row>
+    <row r="497" spans="10:10">
+      <c r="J497" s="24"/>
+    </row>
+    <row r="498" spans="10:10">
+      <c r="J498" s="24"/>
+    </row>
+    <row r="499" spans="10:10">
+      <c r="J499" s="24"/>
+    </row>
+    <row r="500" spans="10:10">
+      <c r="J500" s="24"/>
+    </row>
+    <row r="501" spans="10:10">
+      <c r="J501" s="24"/>
+    </row>
+    <row r="502" spans="10:10">
+      <c r="J502" s="24"/>
+    </row>
+    <row r="503" spans="10:10">
+      <c r="J503" s="24"/>
+    </row>
+    <row r="504" spans="10:10">
+      <c r="J504" s="24"/>
+    </row>
+    <row r="505" spans="10:10">
+      <c r="J505" s="24"/>
+    </row>
+    <row r="506" spans="10:10">
+      <c r="J506" s="24"/>
+    </row>
+    <row r="507" spans="10:10">
+      <c r="J507" s="24"/>
+    </row>
+    <row r="508" spans="10:10">
+      <c r="J508" s="24"/>
+    </row>
+    <row r="509" spans="10:10">
+      <c r="J509" s="24"/>
+    </row>
+    <row r="510" spans="10:10">
+      <c r="J510" s="24"/>
+    </row>
+    <row r="511" spans="10:10">
+      <c r="J511" s="24"/>
+    </row>
+    <row r="512" spans="10:10">
+      <c r="J512" s="24"/>
+    </row>
+    <row r="513" spans="10:10">
+      <c r="J513" s="24"/>
+    </row>
+    <row r="514" spans="10:10">
+      <c r="J514" s="24"/>
+    </row>
+    <row r="515" spans="10:10">
+      <c r="J515" s="24"/>
+    </row>
+    <row r="516" spans="10:10">
+      <c r="J516" s="24"/>
+    </row>
+    <row r="517" spans="10:10">
+      <c r="J517" s="24"/>
+    </row>
+    <row r="518" spans="10:10">
+      <c r="J518" s="24"/>
+    </row>
+    <row r="519" spans="10:10">
+      <c r="J519" s="24"/>
+    </row>
+    <row r="520" spans="10:10">
+      <c r="J520" s="24"/>
+    </row>
+    <row r="521" spans="10:10">
+      <c r="J521" s="24"/>
+    </row>
+    <row r="522" spans="10:10">
+      <c r="J522" s="24"/>
+    </row>
+    <row r="523" spans="10:10">
+      <c r="J523" s="24"/>
+    </row>
+    <row r="524" spans="10:10">
+      <c r="J524" s="24"/>
+    </row>
+    <row r="525" spans="10:10">
+      <c r="J525" s="24"/>
+    </row>
+    <row r="526" spans="10:10">
+      <c r="J526" s="24"/>
+    </row>
+    <row r="527" spans="10:10">
+      <c r="J527" s="24"/>
+    </row>
+    <row r="528" spans="10:10">
+      <c r="J528" s="24"/>
+    </row>
+    <row r="529" spans="10:10">
+      <c r="J529" s="24"/>
+    </row>
+    <row r="530" spans="10:10">
+      <c r="J530" s="24"/>
+    </row>
+    <row r="531" spans="10:10">
+      <c r="J531" s="24"/>
+    </row>
+    <row r="532" spans="10:10">
+      <c r="J532" s="24"/>
+    </row>
+    <row r="533" spans="10:10">
+      <c r="J533" s="24"/>
+    </row>
+    <row r="534" spans="10:10">
+      <c r="J534" s="24"/>
+    </row>
+    <row r="535" spans="10:10">
+      <c r="J535" s="24"/>
+    </row>
+    <row r="536" spans="10:10">
+      <c r="J536" s="24"/>
+    </row>
+    <row r="537" spans="10:10">
+      <c r="J537" s="24"/>
+    </row>
+    <row r="538" spans="10:10">
+      <c r="J538" s="24"/>
+    </row>
+    <row r="539" spans="10:10">
+      <c r="J539" s="24"/>
+    </row>
+    <row r="540" spans="10:10">
+      <c r="J540" s="24"/>
+    </row>
+    <row r="541" spans="10:10">
+      <c r="J541" s="24"/>
+    </row>
+    <row r="542" spans="10:10">
+      <c r="J542" s="24"/>
+    </row>
+    <row r="543" spans="10:10">
+      <c r="J543" s="24"/>
+    </row>
+    <row r="544" spans="10:10">
+      <c r="J544" s="24"/>
+    </row>
+    <row r="545" spans="10:10">
+      <c r="J545" s="24"/>
+    </row>
+    <row r="546" spans="10:10">
+      <c r="J546" s="24"/>
+    </row>
+    <row r="547" spans="10:10">
+      <c r="J547" s="24"/>
+    </row>
+    <row r="548" spans="10:10">
+      <c r="J548" s="24"/>
+    </row>
+    <row r="549" spans="10:10">
+      <c r="J549" s="24"/>
+    </row>
+    <row r="550" spans="10:10">
+      <c r="J550" s="24"/>
+    </row>
+    <row r="551" spans="10:10">
+      <c r="J551" s="24"/>
+    </row>
+    <row r="552" spans="10:10">
+      <c r="J552" s="24"/>
+    </row>
+    <row r="553" spans="10:10">
+      <c r="J553" s="24"/>
+    </row>
+    <row r="554" spans="10:10">
+      <c r="J554" s="24"/>
+    </row>
+    <row r="555" spans="10:10">
+      <c r="J555" s="24"/>
+    </row>
+    <row r="556" spans="10:10">
+      <c r="J556" s="24"/>
+    </row>
+    <row r="557" spans="10:10">
+      <c r="J557" s="24"/>
+    </row>
+    <row r="558" spans="10:10">
+      <c r="J558" s="24"/>
+    </row>
+    <row r="559" spans="10:10">
+      <c r="J559" s="24"/>
+    </row>
+    <row r="560" spans="10:10">
+      <c r="J560" s="24"/>
+    </row>
+    <row r="561" spans="10:10">
+      <c r="J561" s="24"/>
+    </row>
+    <row r="562" spans="10:10">
+      <c r="J562" s="24"/>
+    </row>
+    <row r="563" spans="10:10">
+      <c r="J563" s="24"/>
+    </row>
+    <row r="564" spans="10:10">
+      <c r="J564" s="24"/>
+    </row>
+    <row r="565" spans="10:10">
+      <c r="J565" s="24"/>
+    </row>
+    <row r="566" spans="10:10">
+      <c r="J566" s="24"/>
+    </row>
+    <row r="567" spans="10:10">
+      <c r="J567" s="24"/>
+    </row>
+    <row r="568" spans="10:10">
+      <c r="J568" s="24"/>
+    </row>
+    <row r="569" spans="10:10">
+      <c r="J569" s="24"/>
+    </row>
+    <row r="570" spans="10:10">
+      <c r="J570" s="24"/>
+    </row>
+    <row r="571" spans="10:10">
+      <c r="J571" s="24"/>
+    </row>
+    <row r="572" spans="10:10">
+      <c r="J572" s="24"/>
+    </row>
+    <row r="573" spans="10:10">
+      <c r="J573" s="24"/>
+    </row>
+    <row r="574" spans="10:10">
+      <c r="J574" s="24"/>
+    </row>
+    <row r="575" spans="10:10">
+      <c r="J575" s="24"/>
+    </row>
+    <row r="576" spans="10:10">
+      <c r="J576" s="24"/>
+    </row>
+    <row r="577" spans="10:10">
+      <c r="J577" s="24"/>
+    </row>
+    <row r="578" spans="10:10">
+      <c r="J578" s="24"/>
+    </row>
+    <row r="579" spans="10:10">
+      <c r="J579" s="24"/>
+    </row>
+    <row r="580" spans="10:10">
+      <c r="J580" s="24"/>
+    </row>
+    <row r="581" spans="10:10">
+      <c r="J581" s="24"/>
+    </row>
+    <row r="582" spans="10:10">
+      <c r="J582" s="24"/>
+    </row>
+    <row r="583" spans="10:10">
+      <c r="J583" s="24"/>
+    </row>
+    <row r="584" spans="10:10">
+      <c r="J584" s="24"/>
+    </row>
+    <row r="585" spans="10:10">
+      <c r="J585" s="24"/>
+    </row>
+    <row r="586" spans="10:10">
+      <c r="J586" s="24"/>
+    </row>
+    <row r="587" spans="10:10">
+      <c r="J587" s="24"/>
+    </row>
+    <row r="588" spans="10:10">
+      <c r="J588" s="24"/>
+    </row>
+    <row r="589" spans="10:10">
+      <c r="J589" s="24"/>
+    </row>
+    <row r="590" spans="10:10">
+      <c r="J590" s="24"/>
+    </row>
+    <row r="591" spans="10:10">
+      <c r="J591" s="24"/>
+    </row>
+    <row r="592" spans="10:10">
+      <c r="J592" s="24"/>
+    </row>
+    <row r="593" spans="10:10">
+      <c r="J593" s="24"/>
+    </row>
+    <row r="594" spans="10:10">
+      <c r="J594" s="24"/>
+    </row>
+    <row r="595" spans="10:10">
+      <c r="J595" s="24"/>
+    </row>
+    <row r="596" spans="10:10">
+      <c r="J596" s="24"/>
+    </row>
+    <row r="597" spans="10:10">
+      <c r="J597" s="24"/>
+    </row>
+    <row r="598" spans="10:10">
+      <c r="J598" s="24"/>
+    </row>
+    <row r="599" spans="10:10">
+      <c r="J599" s="24"/>
+    </row>
+    <row r="600" spans="10:10">
+      <c r="J600" s="24"/>
+    </row>
+    <row r="601" spans="10:10">
+      <c r="J601" s="24"/>
+    </row>
+    <row r="602" spans="10:10">
+      <c r="J602" s="24"/>
+    </row>
+    <row r="603" spans="10:10">
+      <c r="J603" s="24"/>
+    </row>
+    <row r="604" spans="10:10">
+      <c r="J604" s="24"/>
+    </row>
+    <row r="605" spans="10:10">
+      <c r="J605" s="24"/>
+    </row>
+    <row r="606" spans="10:10">
+      <c r="J606" s="24"/>
+    </row>
+    <row r="607" spans="10:10">
+      <c r="J607" s="24"/>
+    </row>
+    <row r="608" spans="10:10">
+      <c r="J608" s="24"/>
+    </row>
+    <row r="609" spans="10:10">
+      <c r="J609" s="24"/>
+    </row>
+    <row r="610" spans="10:10">
+      <c r="J610" s="24"/>
+    </row>
+    <row r="611" spans="10:10">
+      <c r="J611" s="24"/>
+    </row>
+    <row r="612" spans="10:10">
+      <c r="J612" s="24"/>
+    </row>
+    <row r="613" spans="10:10">
+      <c r="J613" s="24"/>
+    </row>
+    <row r="614" spans="10:10">
+      <c r="J614" s="24"/>
+    </row>
+    <row r="615" spans="10:10">
+      <c r="J615" s="24"/>
+    </row>
+    <row r="616" spans="10:10">
+      <c r="J616" s="24"/>
+    </row>
+    <row r="617" spans="10:10">
+      <c r="J617" s="24"/>
+    </row>
+    <row r="618" spans="10:10">
+      <c r="J618" s="24"/>
+    </row>
+    <row r="619" spans="10:10">
+      <c r="J619" s="24"/>
+    </row>
+    <row r="620" spans="10:10">
+      <c r="J620" s="24"/>
+    </row>
+    <row r="621" spans="10:10">
+      <c r="J621" s="24"/>
+    </row>
+    <row r="622" spans="10:10">
+      <c r="J622" s="24"/>
+    </row>
+    <row r="623" spans="10:10">
+      <c r="J623" s="24"/>
+    </row>
+    <row r="624" spans="10:10">
+      <c r="J624" s="24"/>
+    </row>
+    <row r="625" spans="10:10">
+      <c r="J625" s="24"/>
+    </row>
+    <row r="626" spans="10:10">
+      <c r="J626" s="24"/>
+    </row>
+    <row r="627" spans="10:10">
+      <c r="J627" s="24"/>
+    </row>
+    <row r="628" spans="10:10">
+      <c r="J628" s="24"/>
+    </row>
+    <row r="629" spans="10:10">
+      <c r="J629" s="24"/>
+    </row>
+    <row r="630" spans="10:10">
+      <c r="J630" s="24"/>
+    </row>
+    <row r="631" spans="10:10">
+      <c r="J631" s="24"/>
+    </row>
+    <row r="632" spans="10:10">
+      <c r="J632" s="24"/>
+    </row>
+    <row r="633" spans="10:10">
+      <c r="J633" s="24"/>
+    </row>
+    <row r="634" spans="10:10">
+      <c r="J634" s="24"/>
+    </row>
+    <row r="635" spans="10:10">
+      <c r="J635" s="24"/>
+    </row>
+    <row r="636" spans="10:10">
+      <c r="J636" s="24"/>
+    </row>
+    <row r="637" spans="10:10">
+      <c r="J637" s="24"/>
+    </row>
+    <row r="638" spans="10:10">
+      <c r="J638" s="24"/>
+    </row>
+    <row r="639" spans="10:10">
+      <c r="J639" s="24"/>
+    </row>
+    <row r="640" spans="10:10">
+      <c r="J640" s="24"/>
+    </row>
+    <row r="641" spans="10:10">
+      <c r="J641" s="24"/>
+    </row>
+    <row r="642" spans="10:10">
+      <c r="J642" s="24"/>
+    </row>
+    <row r="643" spans="10:10">
+      <c r="J643" s="24"/>
+    </row>
+    <row r="644" spans="10:10">
+      <c r="J644" s="24"/>
+    </row>
+    <row r="645" spans="10:10">
+      <c r="J645" s="24"/>
+    </row>
+    <row r="646" spans="10:10">
+      <c r="J646" s="24"/>
+    </row>
+    <row r="647" spans="10:10">
+      <c r="J647" s="24"/>
+    </row>
+    <row r="648" spans="10:10">
+      <c r="J648" s="24"/>
+    </row>
+    <row r="649" spans="10:10">
+      <c r="J649" s="24"/>
+    </row>
+    <row r="650" spans="10:10">
+      <c r="J650" s="24"/>
+    </row>
+    <row r="651" spans="10:10">
+      <c r="J651" s="24"/>
+    </row>
+    <row r="652" spans="10:10">
+      <c r="J652" s="24"/>
+    </row>
+    <row r="653" spans="10:10">
+      <c r="J653" s="24"/>
+    </row>
+    <row r="654" spans="10:10">
+      <c r="J654" s="24"/>
+    </row>
+    <row r="655" spans="10:10">
+      <c r="J655" s="24"/>
+    </row>
+    <row r="656" spans="10:10">
+      <c r="J656" s="24"/>
+    </row>
+    <row r="657" spans="10:10">
+      <c r="J657" s="24"/>
+    </row>
+    <row r="658" spans="10:10">
+      <c r="J658" s="24"/>
+    </row>
+    <row r="659" spans="10:10">
+      <c r="J659" s="24"/>
+    </row>
+    <row r="660" spans="10:10">
+      <c r="J660" s="24"/>
+    </row>
+    <row r="661" spans="10:10">
+      <c r="J661" s="24"/>
+    </row>
+    <row r="662" spans="10:10">
+      <c r="J662" s="24"/>
+    </row>
+    <row r="663" spans="10:10">
+      <c r="J663" s="24"/>
+    </row>
+    <row r="664" spans="10:10">
+      <c r="J664" s="24"/>
+    </row>
+    <row r="665" spans="10:10">
+      <c r="J665" s="24"/>
+    </row>
+    <row r="666" spans="10:10">
+      <c r="J666" s="24"/>
+    </row>
+    <row r="667" spans="10:10">
+      <c r="J667" s="24"/>
+    </row>
+    <row r="668" spans="10:10">
+      <c r="J668" s="24"/>
+    </row>
+    <row r="669" spans="10:10">
+      <c r="J669" s="24"/>
+    </row>
+    <row r="670" spans="10:10">
+      <c r="J670" s="24"/>
+    </row>
+    <row r="671" spans="10:10">
+      <c r="J671" s="24"/>
+    </row>
+    <row r="672" spans="10:10">
+      <c r="J672" s="24"/>
+    </row>
+    <row r="673" spans="10:10">
+      <c r="J673" s="24"/>
+    </row>
+    <row r="674" spans="10:10">
+      <c r="J674" s="24"/>
+    </row>
+    <row r="675" spans="10:10">
+      <c r="J675" s="24"/>
+    </row>
+    <row r="676" spans="10:10">
+      <c r="J676" s="24"/>
+    </row>
+    <row r="677" spans="10:10">
+      <c r="J677" s="24"/>
+    </row>
+    <row r="678" spans="10:10">
+      <c r="J678" s="24"/>
+    </row>
+    <row r="679" spans="10:10">
+      <c r="J679" s="24"/>
+    </row>
+    <row r="680" spans="10:10">
+      <c r="J680" s="24"/>
+    </row>
+    <row r="681" spans="10:10">
+      <c r="J681" s="24"/>
+    </row>
+    <row r="682" spans="10:10">
+      <c r="J682" s="24"/>
+    </row>
+    <row r="683" spans="10:10">
+      <c r="J683" s="24"/>
+    </row>
+    <row r="684" spans="10:10">
+      <c r="J684" s="24"/>
+    </row>
+    <row r="685" spans="10:10">
+      <c r="J685" s="24"/>
+    </row>
+    <row r="686" spans="10:10">
+      <c r="J686" s="24"/>
+    </row>
+    <row r="687" spans="10:10">
+      <c r="J687" s="24"/>
+    </row>
+    <row r="688" spans="10:10">
+      <c r="J688" s="24"/>
+    </row>
+    <row r="689" spans="10:10">
+      <c r="J689" s="24"/>
+    </row>
+    <row r="690" spans="10:10">
+      <c r="J690" s="24"/>
+    </row>
+    <row r="691" spans="10:10">
+      <c r="J691" s="24"/>
+    </row>
+    <row r="692" spans="10:10">
+      <c r="J692" s="24"/>
+    </row>
+    <row r="693" spans="10:10">
+      <c r="J693" s="24"/>
+    </row>
+    <row r="694" spans="10:10">
+      <c r="J694" s="24"/>
+    </row>
+    <row r="695" spans="10:10">
+      <c r="J695" s="24"/>
+    </row>
+    <row r="696" spans="10:10">
+      <c r="J696" s="24"/>
+    </row>
+    <row r="697" spans="10:10">
+      <c r="J697" s="24"/>
+    </row>
+    <row r="698" spans="10:10">
+      <c r="J698" s="24"/>
+    </row>
+    <row r="699" spans="10:10">
+      <c r="J699" s="24"/>
+    </row>
+    <row r="700" spans="10:10">
+      <c r="J700" s="24"/>
+    </row>
+    <row r="701" spans="10:10">
+      <c r="J701" s="24"/>
+    </row>
+    <row r="702" spans="10:10">
+      <c r="J702" s="24"/>
+    </row>
+    <row r="703" spans="10:10">
+      <c r="J703" s="24"/>
+    </row>
+    <row r="704" spans="10:10">
+      <c r="J704" s="24"/>
+    </row>
+    <row r="705" spans="10:10">
+      <c r="J705" s="24"/>
+    </row>
+    <row r="706" spans="10:10">
+      <c r="J706" s="24"/>
+    </row>
+    <row r="707" spans="10:10">
+      <c r="J707" s="24"/>
+    </row>
+    <row r="708" spans="10:10">
+      <c r="J708" s="24"/>
+    </row>
+    <row r="709" spans="10:10">
+      <c r="J709" s="24"/>
+    </row>
+    <row r="710" spans="10:10">
+      <c r="J710" s="24"/>
+    </row>
+    <row r="711" spans="10:10">
+      <c r="J711" s="24"/>
+    </row>
+    <row r="712" spans="10:10">
+      <c r="J712" s="24"/>
+    </row>
+    <row r="713" spans="10:10">
+      <c r="J713" s="24"/>
+    </row>
+    <row r="714" spans="10:10">
+      <c r="J714" s="24"/>
+    </row>
+    <row r="715" spans="10:10">
+      <c r="J715" s="24"/>
+    </row>
+    <row r="716" spans="10:10">
+      <c r="J716" s="24"/>
+    </row>
+    <row r="717" spans="10:10">
+      <c r="J717" s="24"/>
+    </row>
+    <row r="718" spans="10:10">
+      <c r="J718" s="24"/>
+    </row>
+    <row r="719" spans="10:10">
+      <c r="J719" s="24"/>
+    </row>
+    <row r="720" spans="10:10">
+      <c r="J720" s="24"/>
+    </row>
+    <row r="721" spans="10:10">
+      <c r="J721" s="24"/>
+    </row>
+    <row r="722" spans="10:10">
+      <c r="J722" s="24"/>
+    </row>
+    <row r="723" spans="10:10">
+      <c r="J723" s="24"/>
+    </row>
+    <row r="724" spans="10:10">
+      <c r="J724" s="24"/>
+    </row>
+    <row r="725" spans="10:10">
+      <c r="J725" s="24"/>
+    </row>
+    <row r="726" spans="10:10">
+      <c r="J726" s="24"/>
+    </row>
+    <row r="727" spans="10:10">
+      <c r="J727" s="24"/>
+    </row>
+    <row r="728" spans="10:10">
+      <c r="J728" s="24"/>
+    </row>
+    <row r="729" spans="10:10">
+      <c r="J729" s="24"/>
+    </row>
+    <row r="730" spans="10:10">
+      <c r="J730" s="24"/>
+    </row>
+    <row r="731" spans="10:10">
+      <c r="J731" s="24"/>
+    </row>
+    <row r="732" spans="10:10">
+      <c r="J732" s="24"/>
+    </row>
+    <row r="733" spans="10:10">
+      <c r="J733" s="24"/>
+    </row>
+    <row r="734" spans="10:10">
+      <c r="J734" s="24"/>
+    </row>
+    <row r="735" spans="10:10">
+      <c r="J735" s="24"/>
+    </row>
+    <row r="736" spans="10:10">
+      <c r="J736" s="24"/>
+    </row>
+    <row r="737" spans="10:10">
+      <c r="J737" s="24"/>
+    </row>
+    <row r="738" spans="10:10">
+      <c r="J738" s="24"/>
+    </row>
+    <row r="739" spans="10:10">
+      <c r="J739" s="24"/>
+    </row>
+    <row r="740" spans="10:10">
+      <c r="J740" s="24"/>
+    </row>
+    <row r="741" spans="10:10">
+      <c r="J741" s="24"/>
+    </row>
+    <row r="742" spans="10:10">
+      <c r="J742" s="24"/>
+    </row>
+    <row r="743" spans="10:10">
+      <c r="J743" s="24"/>
+    </row>
+    <row r="744" spans="10:10">
+      <c r="J744" s="24"/>
+    </row>
+    <row r="745" spans="10:10">
+      <c r="J745" s="24"/>
+    </row>
+    <row r="746" spans="10:10">
+      <c r="J746" s="24"/>
+    </row>
+    <row r="747" spans="10:10">
+      <c r="J747" s="24"/>
+    </row>
+    <row r="748" spans="10:10">
+      <c r="J748" s="24"/>
+    </row>
+    <row r="749" spans="10:10">
+      <c r="J749" s="24"/>
+    </row>
+    <row r="750" spans="10:10">
+      <c r="J750" s="24"/>
+    </row>
+    <row r="751" spans="10:10">
+      <c r="J751" s="24"/>
+    </row>
+    <row r="752" spans="10:10">
+      <c r="J752" s="24"/>
+    </row>
+    <row r="753" spans="10:10">
+      <c r="J753" s="24"/>
+    </row>
+    <row r="754" spans="10:10">
+      <c r="J754" s="24"/>
+    </row>
+    <row r="755" spans="10:10">
+      <c r="J755" s="24"/>
+    </row>
+    <row r="756" spans="10:10">
+      <c r="J756" s="24"/>
+    </row>
+    <row r="757" spans="10:10">
+      <c r="J757" s="24"/>
+    </row>
+    <row r="758" spans="10:10">
+      <c r="J758" s="24"/>
+    </row>
+    <row r="759" spans="10:10">
+      <c r="J759" s="24"/>
+    </row>
+    <row r="760" spans="10:10">
+      <c r="J760" s="24"/>
+    </row>
+    <row r="761" spans="10:10">
+      <c r="J761" s="24"/>
+    </row>
+    <row r="762" spans="10:10">
+      <c r="J762" s="24"/>
+    </row>
+    <row r="763" spans="10:10">
+      <c r="J763" s="24"/>
+    </row>
+    <row r="764" spans="10:10">
+      <c r="J764" s="24"/>
+    </row>
+    <row r="765" spans="10:10">
+      <c r="J765" s="24"/>
+    </row>
+    <row r="766" spans="10:10">
+      <c r="J766" s="24"/>
+    </row>
+    <row r="767" spans="10:10">
+      <c r="J767" s="24"/>
+    </row>
+    <row r="768" spans="10:10">
+      <c r="J768" s="24"/>
+    </row>
+    <row r="769" spans="10:10">
+      <c r="J769" s="24"/>
+    </row>
+    <row r="770" spans="10:10">
+      <c r="J770" s="24"/>
+    </row>
+    <row r="771" spans="10:10">
+      <c r="J771" s="24"/>
+    </row>
+    <row r="772" spans="10:10">
+      <c r="J772" s="24"/>
+    </row>
+    <row r="773" spans="10:10">
+      <c r="J773" s="24"/>
+    </row>
+    <row r="774" spans="10:10">
+      <c r="J774" s="24"/>
+    </row>
+    <row r="775" spans="10:10">
+      <c r="J775" s="24"/>
+    </row>
+    <row r="776" spans="10:10">
+      <c r="J776" s="24"/>
+    </row>
+    <row r="777" spans="10:10">
+      <c r="J777" s="24"/>
+    </row>
+    <row r="778" spans="10:10">
+      <c r="J778" s="24"/>
+    </row>
+    <row r="779" spans="10:10">
+      <c r="J779" s="24"/>
+    </row>
+    <row r="780" spans="10:10">
+      <c r="J780" s="24"/>
+    </row>
+    <row r="781" spans="10:10">
+      <c r="J781" s="24"/>
+    </row>
+    <row r="782" spans="10:10">
+      <c r="J782" s="24"/>
+    </row>
+    <row r="783" spans="10:10">
+      <c r="J783" s="24"/>
+    </row>
+    <row r="784" spans="10:10">
+      <c r="J784" s="24"/>
+    </row>
+    <row r="785" spans="10:10">
+      <c r="J785" s="24"/>
+    </row>
+    <row r="786" spans="10:10">
+      <c r="J786" s="24"/>
+    </row>
+    <row r="787" spans="10:10">
+      <c r="J787" s="24"/>
+    </row>
+    <row r="788" spans="10:10">
+      <c r="J788" s="24"/>
+    </row>
+    <row r="789" spans="10:10">
+      <c r="J789" s="24"/>
+    </row>
+    <row r="790" spans="10:10">
+      <c r="J790" s="24"/>
+    </row>
+    <row r="791" spans="10:10">
+      <c r="J791" s="24"/>
+    </row>
+    <row r="792" spans="10:10">
+      <c r="J792" s="24"/>
+    </row>
+    <row r="793" spans="10:10">
+      <c r="J793" s="24"/>
+    </row>
+    <row r="794" spans="10:10">
+      <c r="J794" s="24"/>
+    </row>
+    <row r="795" spans="10:10">
+      <c r="J795" s="24"/>
+    </row>
+    <row r="796" spans="10:10">
+      <c r="J796" s="24"/>
+    </row>
+    <row r="797" spans="10:10">
+      <c r="J797" s="24"/>
+    </row>
+    <row r="798" spans="10:10">
+      <c r="J798" s="24"/>
+    </row>
+    <row r="799" spans="10:10">
+      <c r="J799" s="24"/>
+    </row>
+    <row r="800" spans="10:10">
+      <c r="J800" s="24"/>
+    </row>
+    <row r="801" spans="10:10">
+      <c r="J801" s="24"/>
+    </row>
+    <row r="802" spans="10:10">
+      <c r="J802" s="24"/>
+    </row>
+    <row r="803" spans="10:10">
+      <c r="J803" s="24"/>
+    </row>
+    <row r="804" spans="10:10">
+      <c r="J804" s="24"/>
+    </row>
+    <row r="805" spans="10:10">
+      <c r="J805" s="24"/>
+    </row>
+    <row r="806" spans="10:10">
+      <c r="J806" s="24"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P7:P806">
+    <sortCondition ref="P7:P806"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2223,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B9D5F-797C-49CC-9435-B3BF433B0ECB}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2234,26 +5510,26 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1">
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">_xll.acq_min(H2:L18)</f>
-        <v>-0.94599999999999995</v>
+        <v>-0.98899999999999999</v>
       </c>
       <c r="D2" s="6">
         <f t="array" aca="1" ref="D2" ca="1">MIN(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-0.94599999999999995</v>
+        <v>-0.98899999999999999</v>
       </c>
       <c r="E2">
         <f ca="1">C2-D2</f>
@@ -2261,32 +5537,32 @@
       </c>
       <c r="H2" s="5">
         <f ca="1">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.33</v>
+        <v>-0.59299999999999997</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:L18" ca="1" si="0">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.439</v>
+        <v>-0.73499999999999999</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51400000000000001</v>
+        <v>-0.96499999999999997</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57399999999999995</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14499999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">_xll.acq_absmin(H2:L18)</f>
-        <v>0.04</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D3" s="6">
         <f t="array" aca="1" ref="D3" ca="1">MIN(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
@@ -2294,40 +5570,40 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" ca="1" si="1">C3-D3</f>
-        <v>0.04</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H18" ca="1" si="2">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-0.90100000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85399999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81299999999999994</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10100000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">_xll.acq_max(H2:L18)</f>
-        <v>0.97099999999999997</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D4" s="6">
         <f t="array" aca="1" ref="D4" ca="1">MAX(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.97099999999999997</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -2335,35 +5611,35 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.1999999999999995E-2</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>-0.55500000000000005</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61799999999999999</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">_xll.acq_absmax(H2:L18)</f>
-        <v>0.97099999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="D5" s="6">
         <f t="array" aca="1" ref="D5" ca="1">MAX(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
-        <v>0.97099999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -2371,35 +5647,35 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17799999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78600000000000003</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86799999999999999</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13900000000000001</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">_xll.acq_sum(H2:L18)</f>
-        <v>-2.488</v>
+        <v>4.6390000000000002</v>
       </c>
       <c r="D6" s="6">
         <f t="array" aca="1" ref="D6" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-2.4879999999999995</v>
+        <v>4.6390000000000002</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -2407,22 +5683,22 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20399999999999999</v>
+        <v>-0.98099999999999998</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45100000000000001</v>
+        <v>-0.97</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3999999999999997E-2</v>
+        <v>0.626</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27100000000000002</v>
+        <v>-0.32900000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -2431,7 +5707,7 @@
       </c>
       <c r="C7" s="6">
         <f ca="1">_xll.acq_count_unique(H2:L18)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6">
         <f t="array" aca="1" ref="D7" ca="1">COUNT(H2:L18)</f>
@@ -2439,26 +5715,26 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.311</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85799999999999998</v>
+        <v>0.53</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62</v>
+        <v>-0.82699999999999996</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54200000000000004</v>
+        <v>-0.84499999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -2467,11 +5743,11 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">_xll.acq_mean(H2:L18)</f>
-        <v>-3.2736842105263154E-2</v>
+        <v>6.1039473684210532E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="array" aca="1" ref="D8" ca="1">AVERAGE(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-3.2736842105263154E-2</v>
+        <v>6.1039473684210532E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -2479,36 +5755,36 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81499999999999995</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69499999999999995</v>
+        <v>-0.59199999999999997</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94599999999999995</v>
+        <v>-0.54800000000000004</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58199999999999996</v>
+        <v>-0.88</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85899999999999999</v>
+        <v>-0.52800000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">_xll.acq_stdev(H2:L18)</f>
-        <v>0.58206458675811457</v>
+        <v>0.59495600825135464</v>
       </c>
       <c r="D9" s="6">
         <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.S(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.58206458675811457</v>
+        <v>0.59495600825135464</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
@@ -2516,35 +5792,35 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.04</v>
+        <v>0.51</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85699999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.626</v>
+        <v>-0.51100000000000001</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50800000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">_xll.acq_sumofsquares(H2:L18)</f>
-        <v>25.491387999999997</v>
+        <v>26.831111000000007</v>
       </c>
       <c r="D10" s="6">
         <f t="array" aca="1" ref="D10" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18^2))</f>
-        <v>25.491388000000001</v>
+        <v>26.831111000000003</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
@@ -2552,11 +5828,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41599999999999998</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71199999999999997</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J10" s="5" t="e">
         <f>1/0</f>
@@ -2564,16 +5840,16 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5000000000000006E-2</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17199999999999999</v>
+        <v>-0.34100000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6">
         <f ca="1">_xll.acq_count(H2:L18)</f>
@@ -2589,11 +5865,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14799999999999999</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89500000000000002</v>
+        <v>0.874</v>
       </c>
       <c r="J11" s="5" t="e">
         <f>SQRT(-1)</f>
@@ -2601,163 +5877,163 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16300000000000001</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97099999999999997</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="H12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.81</v>
+        <v>0.89</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59299999999999997</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.192</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29399999999999998</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="H13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.106</v>
+        <v>0.77</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90900000000000003</v>
+        <v>0.746</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85799999999999998</v>
+        <v>-0.42399999999999999</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17399999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88200000000000001</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="H14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60899999999999999</v>
+        <v>-0.98899999999999999</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42799999999999999</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1</v>
+        <v>-0.67400000000000004</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.90900000000000003</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="H15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.64300000000000002</v>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.498</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.128</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96499999999999997</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64100000000000001</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="H16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86299999999999999</v>
+        <v>-0.68700000000000006</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46600000000000003</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52500000000000002</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="H17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.76100000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6999999999999999E-2</v>
+        <v>-0.438</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85899999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26600000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35</v>
+        <v>-0.65900000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="H18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51900000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4E-2</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65700000000000003</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71299999999999997</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63600000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -2766,7 +6042,7 @@
       </c>
       <c r="C25" t="str">
         <f ca="1">_xll.acq_join(H2:L18, "|")</f>
-        <v>0.33|-0.901|-0.072|0.178|0.204|-0.311|0.815|0.04|0.416|0.148|-0.81|-0.106|0.22|-0.643|0.863|-0.761|0.519|0.439|-0.854|0.05|text|text|text3|-0.695|0.857|0.712|0.895|0.593|-0.909|0.609|0.498|text|0.077|-0.094|-0.514|-0.85|-0.618|0.786|0.451|-0.858|-0.946|text|||text|0.858|0.428|-0.128|-0.67|-0.859|-0.657|0.574|-0.813|text2|-0.868|-0.044|-0.62|0.582|0.626|-0.085|0.163|-0.192|0.174|-0.1|0.965|0.466|-0.266|-0.713|-0.145|0.101|0.098|-0.139|-0.271|0.542|-0.859|-0.508|0.172|0.971|0.294|0.882|-0.053|-0.641|-0.525|-0.35|-0.636</v>
+        <v>-0.593|0.414|0.791|0.932|-0.981|-0.296|0.511|0.51|0.928|-0.057|0.89|0.77|-0.529|-0.234|-0.687|0.026|0.384|-0.735|0.543|-0.555|text|text|text3|-0.592|0.86|0.098|0.874|0.286|0.746|-0.989|0.912|text|-0.438|0.695|-0.965|0.052|0.803|0.794|-0.97|0.53|-0.548|text|||text|-0.424|-0.011|0.055|-0.293|0.547|0.273|-0.353|0.416|text2|-0.136|0.626|-0.827|-0.88|-0.511|-0.28|-0.142|0.273|0.63|-0.674|0.894|0.066|0.309|0.265|0.333|0.475|0.883|0.269|-0.329|-0.845|-0.528|0.531|-0.341|0.109|-0.085|0.269|-0.909|0.498|0.058|-0.659|0.907</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2775,7 +6051,7 @@
       </c>
       <c r="C26" t="str">
         <f ca="1">_xll.acq_join(J2:J18, "|")</f>
-        <v>-0.514|-0.85|-0.618|0.786|0.451|-0.858|-0.946|text|||text|0.858|0.428|-0.128|-0.67|-0.859|-0.657</v>
+        <v>-0.965|0.052|0.803|0.794|-0.97|0.53|-0.548|text|||text|-0.424|-0.011|0.055|-0.293|0.547|0.273</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -2784,7 +6060,7 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">_xll.acq_join(H7:L7, "|")</f>
-        <v>-0.311|text3|-0.858|-0.62|0.542</v>
+        <v>-0.296|text3|0.53|-0.827|-0.845</v>
       </c>
     </row>
   </sheetData>

--- a/Distribution/Examples/ACQ.Stats.xlsx
+++ b/Distribution/Examples/ACQ.Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDDD7A4-C8DA-48D0-9515-CF681486F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E721B-FDD4-4CFA-9615-49920AC157C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="615" windowWidth="24000" windowHeight="13830" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -576,10 +576,10 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1"/>
     <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1449,8 +1449,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1502,18 +1502,18 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.5.8041.39857</v>
+        <v>1.5.8041.40654</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="13">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44578</v>
       </c>
       <c r="J4" s="14" t="str">
         <f ca="1">_xll.acq_tostring(H4)</f>
-        <v>44567</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">_xll.acq_join(H3:H10)</f>
-        <v>3.14159265358979,44567,True,,,,,</v>
+        <v>3.14159265358979,44578,True,,,,,</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H14" t="str">
         <f ca="1">_xll.acq_join(J3:J10, "|")</f>
-        <v>3.14159265358979|44567|TRUE|||||</v>
+        <v>3.14159265358979|44578|TRUE|||||</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
@@ -2208,7 +2208,7 @@
   <dimension ref="A3:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2582,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F123368-5BB9-4931-95EC-690D8D570C5B}">
   <dimension ref="A1:Q806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2609,12 +2609,12 @@
       <c r="B2" s="5">
         <v>0.95</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:17">
       <c r="O3" t="s">
@@ -2672,10 +2672,10 @@
         <f>_xll.acq_binomtest(E5,F5,$B$2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>0.5</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>0</v>
       </c>
       <c r="L5">
@@ -2713,10 +2713,10 @@
         <f>_xll.acq_binomtest(E6,F6,$B$2,FALSE)</f>
         <v>0.2775327998628892</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>0.75</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>0</v>
       </c>
       <c r="L6">
@@ -2746,10 +2746,10 @@
         <f>_xll.acq_binomtest(E7,F7,$B$2,FALSE)</f>
         <v>0.40415002679523848</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>1</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>0</v>
       </c>
       <c r="L7">
@@ -2779,10 +2779,10 @@
         <f>_xll.acq_binomtest(E8,F8,$B$2,FALSE)</f>
         <v>0.50983752846335817</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>1.25</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>0</v>
       </c>
       <c r="L8">
@@ -2805,10 +2805,10 @@
         <f>_xll.acq_binomtest(E9,F9,$B$2,FALSE)</f>
         <v>0.60322185253885463</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>1.5</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>0</v>
       </c>
       <c r="L9">
@@ -2831,10 +2831,10 @@
         <f>_xll.acq_binomtest(E10,F10,$B$2,FALSE)</f>
         <v>0.68732623026634165</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>1.75</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>0</v>
       </c>
       <c r="L10">
@@ -2857,10 +2857,10 @@
         <f>_xll.acq_binomtest(E11,F11,$B$2,FALSE)</f>
         <v>0.76340690948743595</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>1.75</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>1</v>
       </c>
       <c r="L11">
@@ -2883,10 +2883,10 @@
         <f>_xll.acq_binomtest(E12,F12,$B$2,FALSE)</f>
         <v>0.8318196702937638</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>2</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>0</v>
       </c>
       <c r="L12">
@@ -2909,10 +2909,10 @@
         <f>_xll.acq_binomtest(E13,F13,$B$2,FALSE)</f>
         <v>0.89220873259369882</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>2.25</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <v>1</v>
       </c>
       <c r="L13">
@@ -2935,10 +2935,10 @@
         <f>_xll.acq_binomtest(E14,F14,$B$2,FALSE)</f>
         <v>0.94331784854562473</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>2.5</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14">
@@ -2961,10 +2961,10 @@
         <f>_xll.acq_binomtest(E15,F15,$B$2,FALSE)</f>
         <v>0.98212378690492708</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>2.75</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>1</v>
       </c>
       <c r="L15">
@@ -2987,10 +2987,10 @@
         <f>_xll.acq_binomtest(E16,F16,$B$2,FALSE)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <v>3</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="28">
         <v>0</v>
       </c>
       <c r="L16">
@@ -3013,10 +3013,10 @@
         <f>_xll.acq_binomtest(E17,F17,$B$2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>3.25</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <v>1</v>
       </c>
       <c r="L17">
@@ -3039,10 +3039,10 @@
         <f>_xll.acq_binomtest(E18,F18,$B$2,FALSE)</f>
         <v>0.99823256793585935</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <v>3.5</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="28">
         <v>0</v>
       </c>
       <c r="L18">
@@ -3065,10 +3065,10 @@
         <f>_xll.acq_binomtest(E19,F19,$B$2,FALSE)</f>
         <v>5.4486196178705315E-2</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="28">
         <v>1</v>
       </c>
       <c r="L19">
@@ -3077,10 +3077,10 @@
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="J20" s="29">
+      <c r="J20" s="28">
         <v>4.25</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="28">
         <v>1</v>
       </c>
       <c r="L20">
@@ -3089,10 +3089,10 @@
       </c>
     </row>
     <row r="21" spans="5:12">
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>4.5</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>1</v>
       </c>
       <c r="L21">
@@ -3101,10 +3101,10 @@
       </c>
     </row>
     <row r="22" spans="5:12">
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>4.75</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>1</v>
       </c>
       <c r="L22">
@@ -3113,10 +3113,10 @@
       </c>
     </row>
     <row r="23" spans="5:12">
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>5</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>1</v>
       </c>
       <c r="L23">
@@ -3125,10 +3125,10 @@
       </c>
     </row>
     <row r="24" spans="5:12">
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <v>5.5</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>1</v>
       </c>
       <c r="L24">
@@ -5499,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B9D5F-797C-49CC-9435-B3BF433B0ECB}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5525,11 +5525,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">_xll.acq_min(H2:L18)</f>
-        <v>-0.98899999999999999</v>
+        <v>-0.92400000000000004</v>
       </c>
       <c r="D2" s="6">
         <f t="array" aca="1" ref="D2" ca="1">MIN(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>-0.98899999999999999</v>
+        <v>-0.92400000000000004</v>
       </c>
       <c r="E2">
         <f ca="1">C2-D2</f>
@@ -5537,23 +5537,23 @@
       </c>
       <c r="H2" s="5">
         <f ca="1">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-0.59299999999999997</v>
+        <v>-0.214</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:L18" ca="1" si="0">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>-0.73499999999999999</v>
+        <v>-0.88100000000000001</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96499999999999997</v>
+        <v>-0.497</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35299999999999998</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33300000000000002</v>
+        <v>-0.61899999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C3" s="6">
         <f ca="1">_xll.acq_absmin(H2:L18)</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D3" s="6">
         <f t="array" aca="1" ref="D3" ca="1">MIN(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
@@ -5570,27 +5570,27 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" ca="1" si="1">C3-D3</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H18" ca="1" si="2">RANDBETWEEN(-1000,1000)/1000</f>
-        <v>0.41399999999999998</v>
+        <v>-0.09</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54300000000000004</v>
+        <v>-0.57799999999999996</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>-0.108</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41599999999999998</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>-0.23300000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -5599,11 +5599,11 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">_xll.acq_max(H2:L18)</f>
-        <v>0.93200000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D4" s="6">
         <f t="array" aca="1" ref="D4" ca="1">MAX(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.93200000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79100000000000004</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55500000000000005</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80300000000000005</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88300000000000001</v>
+        <v>-0.30199999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -5635,11 +5635,11 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">_xll.acq_absmax(H2:L18)</f>
-        <v>0.98899999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D5" s="6">
         <f t="array" aca="1" ref="D5" ca="1">MAX(ABS(IF(ISNUMBER(H2:L18), H2:L18)))</f>
-        <v>0.98899999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -5647,22 +5647,22 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93200000000000005</v>
+        <v>-0.71699999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79400000000000004</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13600000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26900000000000002</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">_xll.acq_sum(H2:L18)</f>
-        <v>4.6390000000000002</v>
+        <v>-7.5129999999999999</v>
       </c>
       <c r="D6" s="6">
         <f t="array" aca="1" ref="D6" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>4.6390000000000002</v>
+        <v>-7.5129999999999999</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -5683,22 +5683,22 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.98099999999999998</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.626</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32900000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="C7" s="6">
         <f ca="1">_xll.acq_count_unique(H2:L18)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6">
         <f t="array" aca="1" ref="D7" ca="1">COUNT(H2:L18)</f>
@@ -5715,26 +5715,26 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.29599999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.184</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82699999999999996</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84499999999999997</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -5743,11 +5743,11 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">_xll.acq_mean(H2:L18)</f>
-        <v>6.1039473684210532E-2</v>
+        <v>-9.8855263157894738E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="array" aca="1" ref="D8" ca="1">AVERAGE(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>6.1039473684210532E-2</v>
+        <v>-9.8855263157894738E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -5755,23 +5755,23 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51100000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59199999999999997</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54800000000000004</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52800000000000002</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -5780,11 +5780,11 @@
       </c>
       <c r="C9" s="6">
         <f ca="1">_xll.acq_stdev(H2:L18)</f>
-        <v>0.59495600825135464</v>
+        <v>0.56395280426521188</v>
       </c>
       <c r="D9" s="6">
         <f t="array" aca="1" ref="D9" ca="1">_xlfn.STDEV.S(IF(ISNUMBER(H2:L18), H2:L18))</f>
-        <v>0.59495600825135464</v>
+        <v>0.56395280426521199</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
@@ -5792,22 +5792,22 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51100000000000001</v>
+        <v>-0.82</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53100000000000003</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -5816,11 +5816,11 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">_xll.acq_sumofsquares(H2:L18)</f>
-        <v>26.831111000000007</v>
+        <v>24.59590699999999</v>
       </c>
       <c r="D10" s="6">
         <f t="array" aca="1" ref="D10" ca="1">SUM(IF(ISNUMBER(H2:L18), H2:L18^2))</f>
-        <v>26.831111000000003</v>
+        <v>24.595907</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92800000000000005</v>
+        <v>-0.80400000000000005</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000004E-2</v>
+        <v>-0.48599999999999999</v>
       </c>
       <c r="J10" s="5" t="e">
         <f>1/0</f>
@@ -5840,11 +5840,11 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.438</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34100000000000003</v>
+        <v>-0.71199999999999997</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -5865,11 +5865,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.7000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.874</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="J11" s="5" t="e">
         <f>SQRT(-1)</f>
@@ -5877,163 +5877,163 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14199999999999999</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.109</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="H12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>-0.91500000000000004</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28599999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27300000000000002</v>
+        <v>-0.872</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5000000000000006E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="H13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.746</v>
+        <v>-0.79600000000000004</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42399999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26900000000000002</v>
+        <v>-0.30299999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="H14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.52900000000000003</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98899999999999999</v>
+        <v>-0.92400000000000004</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0999999999999999E-2</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67400000000000004</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90900000000000003</v>
+        <v>-0.84199999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="H15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23400000000000001</v>
+        <v>-0.90200000000000002</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91200000000000003</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5E-2</v>
+        <v>-0.48</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89400000000000002</v>
+        <v>-0.54</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.498</v>
+        <v>-0.54100000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="H16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.68700000000000006</v>
+        <v>-0.51400000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29299999999999998</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <v>-0.61299999999999999</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8000000000000003E-2</v>
+        <v>-0.57799999999999996</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="H17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.438</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54700000000000004</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.309</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65900000000000003</v>
+        <v>-0.45400000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="H18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38400000000000001</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69499999999999995</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27300000000000002</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26500000000000001</v>
+        <v>-0.73499999999999999</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90700000000000003</v>
+        <v>-0.872</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C25" t="str">
         <f ca="1">_xll.acq_join(H2:L18, "|")</f>
-        <v>-0.593|0.414|0.791|0.932|-0.981|-0.296|0.511|0.51|0.928|-0.057|0.89|0.77|-0.529|-0.234|-0.687|0.026|0.384|-0.735|0.543|-0.555|text|text|text3|-0.592|0.86|0.098|0.874|0.286|0.746|-0.989|0.912|text|-0.438|0.695|-0.965|0.052|0.803|0.794|-0.97|0.53|-0.548|text|||text|-0.424|-0.011|0.055|-0.293|0.547|0.273|-0.353|0.416|text2|-0.136|0.626|-0.827|-0.88|-0.511|-0.28|-0.142|0.273|0.63|-0.674|0.894|0.066|0.309|0.265|0.333|0.475|0.883|0.269|-0.329|-0.845|-0.528|0.531|-0.341|0.109|-0.085|0.269|-0.909|0.498|0.058|-0.659|0.907</v>
+        <v>-0.214|-0.09|0.403|-0.717|0.194|0.831|0.177|-0.679|-0.804|0.079|-0.915|0.911|0.302|-0.902|-0.514|0.885|-0.138|-0.881|-0.578|0.583|text|text|text3|-0.143|0.933|-0.486|-0.294|0.468|-0.796|-0.924|0.323|text|-0.148|0.039|-0.497|-0.108|0.396|0.832|0.209|0.184|0.712|text|||text|0.583|0.944|-0.48|-0.236|0.765|-0.267|-0.385|-0.762|text2|0.194|0.808|-0.042|-0.195|-0.82|-0.438|-0.118|-0.872|-0.059|0.482|-0.54|-0.613|0.768|-0.735|-0.619|-0.233|-0.302|0.548|0.509|0.014|-0.6|0.001|-0.712|0.696|0.16|-0.303|-0.842|-0.541|-0.578|-0.454|-0.872</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="C26" t="str">
         <f ca="1">_xll.acq_join(J2:J18, "|")</f>
-        <v>-0.965|0.052|0.803|0.794|-0.97|0.53|-0.548|text|||text|-0.424|-0.011|0.055|-0.293|0.547|0.273</v>
+        <v>-0.497|-0.108|0.396|0.832|0.209|0.184|0.712|text|||text|0.583|0.944|-0.48|-0.236|0.765|-0.267</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">_xll.acq_join(H7:L7, "|")</f>
-        <v>-0.296|text3|0.53|-0.827|-0.845</v>
+        <v>0.831|text3|0.184|-0.042|0.014</v>
       </c>
     </row>
   </sheetData>
